--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -28,7 +28,10 @@
     <t xml:space="preserve">Product</t>
   </si>
   <si>
-    <t xml:space="preserve">Price</t>
+    <t xml:space="preserve">Selling_Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying_Price</t>
   </si>
   <si>
     <t xml:space="preserve">URL</t>
@@ -142,12 +145,6 @@
     <t xml:space="preserve">https://tavex.bg/zlato/20-grama-zlatno-kulche-valcambi/</t>
   </si>
   <si>
-    <t xml:space="preserve">20 грама златно кюлче PAMP Фортуна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/20-grama-zlatno-kulche-pamp-fortuna/</t>
-  </si>
-  <si>
     <t xml:space="preserve">20 грама златно кюлче Argor-Heraeus</t>
   </si>
   <si>
@@ -376,12 +373,6 @@
     <t xml:space="preserve">https://tavex.bg/zlato/10-frenski-franka-napoleon/</t>
   </si>
   <si>
-    <t xml:space="preserve">10 френски франка златна монета Наполеон III с лавров венец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/10-frenski-franka-zlatna-moneta-napoleon-iii-s-lavrov-venets/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Златна монета 20 френски франка Серес</t>
   </si>
   <si>
@@ -640,12 +631,6 @@
     <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyki-lunar-2000-godina-drakona/</t>
   </si>
   <si>
-    <t xml:space="preserve">1 унция златен австралийски лунар година на Тигъра 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-tigura-2010/</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 унция златен австралийски лунар година на Кучето 2006</t>
   </si>
   <si>
@@ -662,210 +647,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-vola-1997/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златен австралийски лунар година на Мишката 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/a5s12listpositioni42s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златен австралийски лунар година на Коня 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-konq-2014/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 грама златно кюлче Argor-Heraeus лунар Дракон 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 грам златно кюлче Argor-Heraeus лунар Дракон 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 грама златна монета Китайска панда 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 грама златна монета Китайска панда 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 грама златна монета Китайска панда 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 грама златна монета Китайска панда 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 грам златна монета Китайска панда 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 унция златна монета Австралийски лунар година на Дракона 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Драконът на Тюдор 2024г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tudorite-drakonat-na-tudor-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Еднорогът на Сиймор 2024 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-ednorogut-na-siimor-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Бикът от Кларънс 2023 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-bikut-ot-klaruns-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златна монета Британия - Елизабет II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya-elizabet-ii/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Йейлът на Бофорт 2023 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-oz-zlatna-moneta-pazitelite-na-tyudorite-yeylut-na-bofort-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 унция златен австралийски лунар година на Заека 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-2-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 унция златен австралийски лунар година на Заека 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-4-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 грама златно кюлче PAMP лунар година на Дракона 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-drakon-2024/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 грама златно кюлче PAMP лунар година на Заека 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-zaek-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/10 унция златен австралийски лунар година на Заека 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-10-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 грама златна монета Китайска панда 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/20 унция златен австралийски лунар година на Заека 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 грама златна монета Китайска панда 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 грама златна монета Китайска панда 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 грама златна монета Китайска панда 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 грам златна монета Китайска панда 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2023/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 грама златно кюлче PAMP Фортуна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/100-grama-zlatno-kulche-pamp-fortuna/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 грама златно кюлче PAMP Фортуна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/50-grama-zlatno-kulche-pamp-fortuna/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 унция златно кюлче PAMP Фортуна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-fortuna/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 крони Кристиян X Дания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/10-kroni-kristiyan-x-daniya/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Гулдена Вилхелм III Холандия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-9/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 грама златна монета Китайска панда 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2022/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Златна монета 10 франка Мариана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/10-frenski-franka-mariana/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 килограм златно кюлче Valcambi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
   </si>
 </sst>
 </file>
@@ -986,7 +767,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -995,9 +776,8 @@
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="234.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,1951 +793,1742 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>5532</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5587</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>569</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>572</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>5532</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5614</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>569</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>572</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>627</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>5532</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5609</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>5532</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5587</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>17317</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>17420</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>17702</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>17317</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>17420</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>17720</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8806</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>8858</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>9173</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>8806</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>29</v>
+        <v>8858</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8938</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>8806</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>31</v>
+        <v>8858</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>8946</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>5483</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>5516</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5566</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5483</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>35</v>
+        <v>5516</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>5568</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>5483</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>5516</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5571</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>3571</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>39</v>
+        <v>3592</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3641</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>3571</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>41</v>
+        <v>3592</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3648</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>3571</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>43</v>
+        <v>1796</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1856</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1786</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>45</v>
+        <v>1796</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1873</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1786</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>1796</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1786</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>49</v>
+        <v>907</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>980</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>902</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>51</v>
+        <v>907</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>994</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>902</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>53</v>
+        <v>941</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>936</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>55</v>
+        <v>907</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>981</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>902</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>57</v>
+        <v>466</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>464</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>59</v>
+        <v>466</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>464</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>61</v>
+        <v>373</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>371</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>63</v>
+        <v>183</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>65</v>
+        <v>183</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>67</v>
+        <v>183</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>69</v>
+        <v>5532</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>5754</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>71</v>
+        <v>5195</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>6116</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>5164</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>73</v>
+        <v>5613</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>5863</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>5580</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>75</v>
+        <v>5456</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>5566</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>5424</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>77</v>
+        <v>5532</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>5646</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>79</v>
+        <v>5586</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>6268</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>81</v>
+        <v>5695</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5976</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>5662</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>83</v>
+        <v>1423</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1415</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>85</v>
+        <v>570</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>566</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>87</v>
+        <v>271</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>89</v>
+        <v>5640</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>5754</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>5607</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>91</v>
+        <v>2766</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>2750</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>93</v>
+        <v>1423</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1594</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1415</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>95</v>
+        <v>570</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>566</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>97</v>
+        <v>271</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>99</v>
+        <v>209</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>208</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>101</v>
+        <v>916</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>910</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>103</v>
+        <v>742</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>974</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>738</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>105</v>
+        <v>1485</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1477</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>107</v>
+        <v>1033</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>109</v>
+        <v>1250</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1307</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1243</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>111</v>
+        <v>1033</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>113</v>
+        <v>1033</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>115</v>
+        <v>562</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>643</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>559</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>117</v>
+        <v>1033</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>559</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>119</v>
+        <v>1033</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>121</v>
+        <v>1035</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>123</v>
+        <v>1033</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>125</v>
+        <v>1035</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>127</v>
+        <v>1035</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>129</v>
+        <v>2402</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2595</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>131</v>
+        <v>618</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>652</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>2387</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>133</v>
+        <v>1033</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>614</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>135</v>
+        <v>542</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>579</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>137</v>
+        <v>1051</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1142</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>538</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>139</v>
+        <v>1302</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1361</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>1045</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>141</v>
+        <v>1308</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>1367</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1294</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>143</v>
+        <v>1277</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>1325</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>1301</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>145</v>
+        <v>1277</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>147</v>
+        <v>1277</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>149</v>
+        <v>1277</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1361</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>151</v>
+        <v>1316</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>1425</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>153</v>
+        <v>1028</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1120</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1307</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>155</v>
+        <v>1130</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>157</v>
+        <v>6539</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>6938</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>159</v>
+        <v>5237</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>5614</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>161</v>
+        <v>5335</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>5655</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>5206</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>163</v>
+        <v>2668</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>2918</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>5304</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>165</v>
+        <v>1423</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1598</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>2652</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>167</v>
+        <v>533</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>678</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>1414</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>530</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>171</v>
+        <v>5586</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>8105</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>177</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>173</v>
+        <v>5586</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>175</v>
+        <v>5586</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>177</v>
+        <v>5586</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>179</v>
+        <v>5586</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>181</v>
+        <v>5586</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>183</v>
+        <v>5586</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>185</v>
+        <v>5586</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>187</v>
+        <v>5586</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>189</v>
+        <v>5586</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>191</v>
+        <v>5586</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>193</v>
+        <v>5586</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>195</v>
+        <v>5586</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>197</v>
+        <v>5586</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>199</v>
+        <v>5586</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>201</v>
+        <v>5586</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>7294</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>203</v>
+        <v>5586</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>205</v>
+        <v>5586</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>6754</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
-        <v>45692.9318651669</v>
+        <v>45693.7079105421</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B104" s="0" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>6754</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>5553</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>910</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>208</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>5304</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>2652</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>1414</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" s="0" t="n">
-        <v>530</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" s="0" t="n">
-        <v>177</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>2695</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>5527</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>5527</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>5527</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>5527</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>2695</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>1415</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>936</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>936</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>566</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>5201</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>1387</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>520</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>17317</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" s="0" t="n">
-        <v>8806</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C135" s="0" t="n">
-        <v>5483</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="C136" s="0" t="n">
-        <v>678</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C137" s="0" t="n">
-        <v>1045</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C138" s="0" t="n">
-        <v>5201</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>559</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
-        <v>45692.9318651669</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C140" s="0" t="n">
-        <v>169270</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -145,6 +145,12 @@
     <t xml:space="preserve">https://tavex.bg/zlato/20-grama-zlatno-kulche-valcambi/</t>
   </si>
   <si>
+    <t xml:space="preserve">20 грама златно кюлче PAMP Фортуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/20-grama-zlatno-kulche-pamp-fortuna/</t>
+  </si>
+  <si>
     <t xml:space="preserve">20 грама златно кюлче Argor-Heraeus</t>
   </si>
   <si>
@@ -373,6 +379,12 @@
     <t xml:space="preserve">https://tavex.bg/zlato/10-frenski-franka-napoleon/</t>
   </si>
   <si>
+    <t xml:space="preserve">10 френски франка златна монета Наполеон III с лавров венец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/10-frenski-franka-zlatna-moneta-napoleon-iii-s-lavrov-venets/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Златна монета 20 френски франка Серес</t>
   </si>
   <si>
@@ -631,6 +643,12 @@
     <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyki-lunar-2000-godina-drakona/</t>
   </si>
   <si>
+    <t xml:space="preserve">1 унция златен австралийски лунар година на Тигъра 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-tigura-2010/</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 унция златен австралийски лунар година на Кучето 2006</t>
   </si>
   <si>
@@ -647,6 +665,210 @@
   </si>
   <si>
     <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-vola-1997/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златен австралийски лунар година на Мишката 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/a5s12listpositioni42s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златен австралийски лунар година на Коня 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-konq-2014/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 грама златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 грам златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 грама златна монета Китайска панда 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 грама златна монета Китайска панда 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 грама златна монета Китайска панда 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 грама златна монета Китайска панда 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 грам златна монета Китайска панда 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 унция златна монета Австралийски лунар година на Дракона 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Драконът на Тюдор 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tudorite-drakonat-na-tudor-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Еднорогът на Сиймор 2024 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-ednorogut-na-siimor-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Бикът от Кларънс 2023 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-bikut-ot-klaruns-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златна монета Британия - Елизабет II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya-elizabet-ii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златна монета Пазителите на Тюдорите - Йейлът на Бофорт 2023 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-oz-zlatna-moneta-pazitelite-na-tyudorite-yeylut-na-bofort-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 унция златен австралийски лунар година на Заека 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-2-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 унция златен австралийски лунар година на Заека 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-4-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 грама златно кюлче PAMP лунар година на Дракона 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-drakon-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 грама златно кюлче PAMP лунар година на Заека 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-zaek-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/10 унция златен австралийски лунар година на Заека 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-10-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 грама златна монета Китайска панда 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/20 унция златен австралийски лунар година на Заека 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 грама златна монета Китайска панда 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 грама златна монета Китайска панда 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 грама златна монета Китайска панда 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 грам златна монета Китайска панда 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 грама златно кюлче PAMP Фортуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/100-grama-zlatno-kulche-pamp-fortuna/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 грама златно кюлче PAMP Фортуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/50-grama-zlatno-kulche-pamp-fortuna/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 унция златно кюлче PAMP Фортуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-fortuna/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 крони Кристиян X Дания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/10-kroni-kristiyan-x-daniya/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Гулдена Вилхелм III Холандия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-9/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 грама златна монета Китайска панда 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2022/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Златна монета 10 франка Мариана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/10-frenski-franka-mariana/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 килограм златно кюлче Valcambi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
   </si>
 </sst>
 </file>
@@ -767,7 +989,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -776,7 +998,7 @@
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.59"/>
   </cols>
   <sheetData>
@@ -799,7 +1021,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -808,7 +1030,7 @@
         <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>6</v>
@@ -816,7 +1038,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -833,16 +1055,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5532</v>
+        <v>5517</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>5587</v>
+        <v>5572</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -850,16 +1072,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>12</v>
@@ -867,16 +1089,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5532</v>
+        <v>5517</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5614</v>
+        <v>5599</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>14</v>
@@ -884,16 +1106,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>16</v>
@@ -901,16 +1123,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5532</v>
+        <v>5517</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5609</v>
+        <v>5593</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>18</v>
@@ -918,16 +1140,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>5532</v>
+        <v>5517</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5587</v>
+        <v>5572</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>20</v>
@@ -935,16 +1157,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>17420</v>
+        <v>17371</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>17702</v>
+        <v>17653</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>22</v>
@@ -952,16 +1174,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>17420</v>
+        <v>17371</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>17720</v>
+        <v>17670</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>24</v>
@@ -969,7 +1191,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>25</v>
@@ -986,16 +1208,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8858</v>
+        <v>8833</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>9173</v>
+        <v>9148</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>28</v>
@@ -1003,16 +1225,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>8858</v>
+        <v>8833</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>8938</v>
+        <v>8913</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>30</v>
@@ -1020,16 +1242,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>8858</v>
+        <v>8833</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>8946</v>
+        <v>8922</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>32</v>
@@ -1037,16 +1259,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>5516</v>
+        <v>5501</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5566</v>
+        <v>5550</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>34</v>
@@ -1054,16 +1276,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5516</v>
+        <v>5501</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5568</v>
+        <v>5553</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>36</v>
@@ -1071,16 +1293,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>5516</v>
+        <v>5501</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5571</v>
+        <v>5556</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>38</v>
@@ -1088,16 +1310,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>3592</v>
+        <v>3582</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3641</v>
+        <v>3631</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>40</v>
@@ -1105,16 +1327,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>3592</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>3648</v>
+        <v>3582</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>42</v>
@@ -1122,16 +1341,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1796</v>
+        <v>3582</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1856</v>
+        <v>3638</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>44</v>
@@ -1139,16 +1358,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1873</v>
+        <v>1851</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>46</v>
@@ -1156,16 +1375,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1857</v>
+        <v>1868</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>48</v>
@@ -1173,16 +1392,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>907</v>
+        <v>1791</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>980</v>
+        <v>1852</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>50</v>
@@ -1190,16 +1409,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>52</v>
@@ -1207,16 +1426,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1030</v>
+        <v>991</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>54</v>
@@ -1224,16 +1443,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>907</v>
+        <v>939</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>981</v>
+        <v>1027</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>56</v>
@@ -1241,16 +1460,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>466</v>
+        <v>904</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>521</v>
+        <v>978</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>58</v>
@@ -1258,16 +1477,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>60</v>
@@ -1275,16 +1494,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>62</v>
@@ -1292,16 +1511,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>183</v>
+        <v>372</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>219</v>
+        <v>416</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>64</v>
@@ -1309,16 +1528,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>66</v>
@@ -1326,16 +1545,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>68</v>
@@ -1343,16 +1562,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>5532</v>
+        <v>182</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5754</v>
+        <v>217</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>70</v>
@@ -1360,16 +1579,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>5195</v>
+        <v>5517</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>6116</v>
+        <v>5738</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
@@ -1377,16 +1596,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>5613</v>
+        <v>5180</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5863</v>
+        <v>6099</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>74</v>
@@ -1394,16 +1613,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>5456</v>
+        <v>5598</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5566</v>
+        <v>5847</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>76</v>
@@ -1411,16 +1630,16 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>5532</v>
+        <v>5441</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5646</v>
+        <v>5550</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>78</v>
@@ -1428,16 +1647,16 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>5586</v>
+        <v>5517</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>6268</v>
+        <v>5631</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>80</v>
@@ -1445,16 +1664,16 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>5695</v>
+        <v>5571</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>5976</v>
+        <v>6251</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>82</v>
@@ -1462,16 +1681,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1423</v>
+        <v>5679</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1621</v>
+        <v>5960</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>84</v>
@@ -1479,16 +1698,16 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>570</v>
+        <v>1420</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>703</v>
+        <v>1616</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>86</v>
@@ -1496,16 +1715,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>271</v>
+        <v>568</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>397</v>
+        <v>701</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>88</v>
@@ -1513,16 +1732,16 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>5640</v>
+        <v>271</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>5754</v>
+        <v>396</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>90</v>
@@ -1530,16 +1749,16 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>2766</v>
+        <v>5624</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3080</v>
+        <v>5738</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>92</v>
@@ -1547,16 +1766,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1423</v>
+        <v>2758</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1594</v>
+        <v>3072</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>94</v>
@@ -1564,16 +1783,16 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>570</v>
+        <v>1420</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>692</v>
+        <v>1590</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>96</v>
@@ -1581,16 +1800,16 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>271</v>
+        <v>568</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>397</v>
+        <v>690</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>98</v>
@@ -1598,16 +1817,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>100</v>
@@ -1615,16 +1834,16 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>916</v>
+        <v>208</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1017</v>
+        <v>264</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>102</v>
@@ -1632,16 +1851,16 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>742</v>
+        <v>913</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>974</v>
+        <v>1014</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>104</v>
@@ -1649,16 +1868,16 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1485</v>
+        <v>740</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>2017</v>
+        <v>972</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>106</v>
@@ -1666,16 +1885,16 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1033</v>
+        <v>1481</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1063</v>
+        <v>2012</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>108</v>
@@ -1683,16 +1902,16 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1250</v>
+        <v>1030</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1307</v>
+        <v>1060</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>110</v>
@@ -1700,16 +1919,16 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1033</v>
+        <v>1259</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1063</v>
+        <v>1353</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>112</v>
@@ -1717,16 +1936,16 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>114</v>
@@ -1734,16 +1953,16 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>562</v>
+        <v>1030</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>643</v>
+        <v>1060</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>116</v>
@@ -1751,16 +1970,16 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>1033</v>
+        <v>560</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1063</v>
+        <v>641</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>118</v>
@@ -1768,16 +1987,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>1033</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>1063</v>
+        <v>560</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>120</v>
@@ -1785,16 +2001,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>122</v>
@@ -1802,16 +2018,16 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>124</v>
@@ -1819,16 +2035,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>126</v>
@@ -1836,16 +2052,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>127</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>128</v>
@@ -1853,16 +2069,16 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>129</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>2402</v>
+        <v>1032</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2595</v>
+        <v>1077</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>130</v>
@@ -1870,16 +2086,16 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>618</v>
+        <v>1032</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>652</v>
+        <v>1062</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>132</v>
@@ -1887,16 +2103,16 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>133</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>1033</v>
+        <v>2394</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1090</v>
+        <v>2588</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>134</v>
@@ -1904,16 +2120,16 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>542</v>
+        <v>616</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>136</v>
@@ -1921,16 +2137,16 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>137</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1142</v>
+        <v>1087</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>138</v>
@@ -1938,16 +2154,16 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>139</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1302</v>
+        <v>539</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1361</v>
+        <v>578</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>140</v>
@@ -1955,16 +2171,16 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>141</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>1308</v>
+        <v>1048</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1367</v>
+        <v>1138</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>142</v>
@@ -1972,16 +2188,16 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1277</v>
+        <v>1298</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1325</v>
+        <v>1357</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>144</v>
@@ -1989,16 +2205,16 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>1277</v>
+        <v>1305</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>146</v>
@@ -2006,16 +2222,16 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>147</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1348</v>
+        <v>1322</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>148</v>
@@ -2023,16 +2239,16 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>149</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>150</v>
@@ -2040,16 +2256,16 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>1316</v>
+        <v>1273</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1425</v>
+        <v>1344</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>152</v>
@@ -2057,16 +2273,16 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>153</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>1028</v>
+        <v>1273</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1120</v>
+        <v>1357</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>154</v>
@@ -2074,16 +2290,16 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1130</v>
+        <v>1311</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1241</v>
+        <v>1421</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>156</v>
@@ -2091,16 +2307,16 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>157</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>6539</v>
+        <v>1025</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>6938</v>
+        <v>1117</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>158</v>
@@ -2108,16 +2324,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>5237</v>
+        <v>1127</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>5614</v>
+        <v>1238</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>160</v>
@@ -2125,16 +2341,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>5335</v>
+        <v>6521</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>5655</v>
+        <v>6919</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>162</v>
@@ -2142,16 +2358,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>163</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>2668</v>
+        <v>5222</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2918</v>
+        <v>5599</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>164</v>
@@ -2159,16 +2375,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>165</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>1423</v>
+        <v>5320</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1598</v>
+        <v>5639</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>166</v>
@@ -2176,16 +2392,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>167</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>533</v>
+        <v>2660</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>678</v>
+        <v>2910</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>168</v>
@@ -2193,16 +2409,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>169</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>178</v>
+        <v>1419</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>270</v>
+        <v>1594</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>170</v>
@@ -2210,16 +2426,16 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>171</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>5586</v>
+        <v>532</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>8105</v>
+        <v>676</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>172</v>
@@ -2227,16 +2443,16 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>173</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>5586</v>
+        <v>177</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>6484</v>
+        <v>269</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>174</v>
@@ -2244,16 +2460,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>175</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>6376</v>
+        <v>8082</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>176</v>
@@ -2261,16 +2477,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>6376</v>
+        <v>6466</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>178</v>
@@ -2278,16 +2494,16 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>179</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>180</v>
@@ -2295,16 +2511,16 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>181</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>182</v>
@@ -2312,16 +2528,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>183</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>6484</v>
+        <v>6358</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>184</v>
@@ -2329,16 +2545,16 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>185</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>186</v>
@@ -2346,16 +2562,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>187</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>6376</v>
+        <v>6466</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>188</v>
@@ -2363,16 +2579,16 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>189</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>190</v>
@@ -2380,16 +2596,16 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>191</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>192</v>
@@ -2397,16 +2613,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>194</v>
@@ -2414,16 +2630,16 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>195</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>196</v>
@@ -2431,16 +2647,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>197</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>198</v>
@@ -2448,16 +2664,16 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>200</v>
@@ -2465,16 +2681,16 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>201</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>7294</v>
+        <v>6358</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>202</v>
@@ -2482,16 +2698,16 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>6376</v>
+        <v>6358</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>204</v>
@@ -2499,16 +2715,16 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>6754</v>
+        <v>7274</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>206</v>
@@ -2516,19 +2732,543 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
-        <v>45693.7079105421</v>
+        <v>45694.9105512607</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>207</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>5586</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>6754</v>
+        <v>5571</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>5571</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>6358</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>5571</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>6736</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>5571</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>6736</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>5571</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>5571</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>913</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>5320</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2660</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>2704</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>5544</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>5544</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>5544</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>5517</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>5544</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>2704</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>939</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>939</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>568</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>2608</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>5217</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>17371</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>8833</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>5501</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>5217</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>45694.9105512607</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>169798</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="283">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -989,17 +989,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E696"/>
+  <dimension ref="A1:E974"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A684" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7165,7 +7164,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>5</v>
@@ -7182,7 +7181,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>5</v>
@@ -7199,7 +7198,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>7</v>
@@ -7216,7 +7215,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>7</v>
@@ -7233,7 +7232,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>9</v>
@@ -7250,7 +7249,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B424" s="0" t="s">
         <v>9</v>
@@ -7267,7 +7266,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>13</v>
@@ -7284,7 +7283,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>13</v>
@@ -7301,7 +7300,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>11</v>
@@ -7318,7 +7317,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>11</v>
@@ -7335,7 +7334,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>15</v>
@@ -7352,7 +7351,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>15</v>
@@ -7369,7 +7368,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>17</v>
@@ -7386,7 +7385,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>17</v>
@@ -7403,7 +7402,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>19</v>
@@ -7420,7 +7419,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>19</v>
@@ -7437,7 +7436,7 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>21</v>
@@ -7454,7 +7453,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>21</v>
@@ -7471,7 +7470,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>23</v>
@@ -7488,7 +7487,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>23</v>
@@ -7505,7 +7504,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>25</v>
@@ -7522,7 +7521,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>25</v>
@@ -7539,7 +7538,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>27</v>
@@ -7556,7 +7555,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>27</v>
@@ -7573,7 +7572,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B443" s="0" t="s">
         <v>29</v>
@@ -7590,7 +7589,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>29</v>
@@ -7607,7 +7606,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B445" s="0" t="s">
         <v>31</v>
@@ -7624,7 +7623,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>31</v>
@@ -7641,7 +7640,7 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B447" s="0" t="s">
         <v>33</v>
@@ -7658,7 +7657,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>33</v>
@@ -7675,7 +7674,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>35</v>
@@ -7692,7 +7691,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>35</v>
@@ -7709,7 +7708,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>37</v>
@@ -7726,7 +7725,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>37</v>
@@ -7743,7 +7742,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>39</v>
@@ -7760,7 +7759,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>39</v>
@@ -7777,7 +7776,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>41</v>
@@ -7791,7 +7790,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>41</v>
@@ -7805,7 +7804,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>43</v>
@@ -7822,7 +7821,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>43</v>
@@ -7839,7 +7838,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>45</v>
@@ -7856,7 +7855,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>45</v>
@@ -7873,7 +7872,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>47</v>
@@ -7890,7 +7889,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>47</v>
@@ -7907,7 +7906,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>49</v>
@@ -7924,7 +7923,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>49</v>
@@ -7941,7 +7940,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B465" s="0" t="s">
         <v>51</v>
@@ -7958,7 +7957,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B466" s="0" t="s">
         <v>51</v>
@@ -7975,7 +7974,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>53</v>
@@ -7992,7 +7991,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B468" s="0" t="s">
         <v>53</v>
@@ -8009,7 +8008,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B469" s="0" t="s">
         <v>57</v>
@@ -8026,7 +8025,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>57</v>
@@ -8043,7 +8042,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>55</v>
@@ -8060,7 +8059,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B472" s="0" t="s">
         <v>55</v>
@@ -8077,7 +8076,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B473" s="0" t="s">
         <v>103</v>
@@ -8094,7 +8093,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>103</v>
@@ -8111,7 +8110,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>59</v>
@@ -8128,7 +8127,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B476" s="0" t="s">
         <v>59</v>
@@ -8145,7 +8144,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B477" s="0" t="s">
         <v>61</v>
@@ -8162,7 +8161,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B478" s="0" t="s">
         <v>61</v>
@@ -8179,7 +8178,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B479" s="0" t="s">
         <v>63</v>
@@ -8196,7 +8195,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B480" s="0" t="s">
         <v>63</v>
@@ -8213,7 +8212,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B481" s="0" t="s">
         <v>65</v>
@@ -8230,7 +8229,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B482" s="0" t="s">
         <v>65</v>
@@ -8247,7 +8246,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B483" s="0" t="s">
         <v>67</v>
@@ -8264,7 +8263,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B484" s="0" t="s">
         <v>67</v>
@@ -8281,7 +8280,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B485" s="0" t="s">
         <v>69</v>
@@ -8298,7 +8297,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B486" s="0" t="s">
         <v>69</v>
@@ -8315,7 +8314,7 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B487" s="0" t="s">
         <v>101</v>
@@ -8332,7 +8331,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B488" s="0" t="s">
         <v>101</v>
@@ -8349,7 +8348,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>71</v>
@@ -8366,7 +8365,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>71</v>
@@ -8383,7 +8382,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>73</v>
@@ -8400,7 +8399,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B492" s="0" t="s">
         <v>73</v>
@@ -8417,7 +8416,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>75</v>
@@ -8434,7 +8433,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>75</v>
@@ -8451,7 +8450,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B495" s="0" t="s">
         <v>77</v>
@@ -8468,7 +8467,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B496" s="0" t="s">
         <v>77</v>
@@ -8485,7 +8484,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>79</v>
@@ -8502,7 +8501,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>79</v>
@@ -8519,7 +8518,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>81</v>
@@ -8536,7 +8535,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B500" s="0" t="s">
         <v>81</v>
@@ -8553,7 +8552,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>83</v>
@@ -8570,7 +8569,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B502" s="0" t="s">
         <v>83</v>
@@ -8587,7 +8586,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>85</v>
@@ -8604,7 +8603,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B504" s="0" t="s">
         <v>85</v>
@@ -8621,7 +8620,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>87</v>
@@ -8638,7 +8637,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B506" s="0" t="s">
         <v>87</v>
@@ -8655,7 +8654,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>89</v>
@@ -8672,7 +8671,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B508" s="0" t="s">
         <v>89</v>
@@ -8689,7 +8688,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B509" s="0" t="s">
         <v>91</v>
@@ -8706,7 +8705,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>91</v>
@@ -8723,7 +8722,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>93</v>
@@ -8740,7 +8739,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>93</v>
@@ -8757,7 +8756,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>95</v>
@@ -8774,7 +8773,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B514" s="0" t="s">
         <v>95</v>
@@ -8791,7 +8790,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B515" s="0" t="s">
         <v>97</v>
@@ -8808,7 +8807,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>97</v>
@@ -8825,7 +8824,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>99</v>
@@ -8842,7 +8841,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>99</v>
@@ -8859,7 +8858,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>105</v>
@@ -8876,7 +8875,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B520" s="0" t="s">
         <v>105</v>
@@ -8893,7 +8892,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>107</v>
@@ -8910,7 +8909,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B522" s="0" t="s">
         <v>107</v>
@@ -8927,7 +8926,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B523" s="0" t="s">
         <v>113</v>
@@ -8944,7 +8943,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B524" s="0" t="s">
         <v>113</v>
@@ -8961,7 +8960,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B525" s="0" t="s">
         <v>115</v>
@@ -8978,7 +8977,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B526" s="0" t="s">
         <v>115</v>
@@ -8995,7 +8994,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B527" s="0" t="s">
         <v>117</v>
@@ -9012,7 +9011,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B528" s="0" t="s">
         <v>117</v>
@@ -9029,7 +9028,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B529" s="0" t="s">
         <v>119</v>
@@ -9043,7 +9042,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B530" s="0" t="s">
         <v>119</v>
@@ -9057,7 +9056,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B531" s="0" t="s">
         <v>121</v>
@@ -9074,7 +9073,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B532" s="0" t="s">
         <v>121</v>
@@ -9091,7 +9090,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B533" s="0" t="s">
         <v>123</v>
@@ -9108,7 +9107,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B534" s="0" t="s">
         <v>123</v>
@@ -9125,7 +9124,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B535" s="0" t="s">
         <v>109</v>
@@ -9142,7 +9141,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B536" s="0" t="s">
         <v>109</v>
@@ -9159,7 +9158,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>125</v>
@@ -9176,7 +9175,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B538" s="0" t="s">
         <v>125</v>
@@ -9193,7 +9192,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B539" s="0" t="s">
         <v>129</v>
@@ -9210,7 +9209,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B540" s="0" t="s">
         <v>129</v>
@@ -9227,7 +9226,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B541" s="0" t="s">
         <v>131</v>
@@ -9244,7 +9243,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B542" s="0" t="s">
         <v>131</v>
@@ -9261,7 +9260,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>133</v>
@@ -9278,7 +9277,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B544" s="0" t="s">
         <v>133</v>
@@ -9295,7 +9294,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>135</v>
@@ -9312,7 +9311,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B546" s="0" t="s">
         <v>135</v>
@@ -9329,7 +9328,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>137</v>
@@ -9346,7 +9345,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B548" s="0" t="s">
         <v>137</v>
@@ -9363,7 +9362,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B549" s="0" t="s">
         <v>139</v>
@@ -9380,7 +9379,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B550" s="0" t="s">
         <v>139</v>
@@ -9397,7 +9396,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B551" s="0" t="s">
         <v>127</v>
@@ -9414,7 +9413,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B552" s="0" t="s">
         <v>127</v>
@@ -9431,7 +9430,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B553" s="0" t="s">
         <v>141</v>
@@ -9448,7 +9447,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B554" s="0" t="s">
         <v>141</v>
@@ -9465,7 +9464,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B555" s="0" t="s">
         <v>111</v>
@@ -9482,7 +9481,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>111</v>
@@ -9499,7 +9498,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B557" s="0" t="s">
         <v>143</v>
@@ -9516,7 +9515,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>143</v>
@@ -9533,7 +9532,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B559" s="0" t="s">
         <v>145</v>
@@ -9550,7 +9549,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B560" s="0" t="s">
         <v>145</v>
@@ -9567,7 +9566,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>147</v>
@@ -9584,7 +9583,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>147</v>
@@ -9601,7 +9600,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>149</v>
@@ -9618,7 +9617,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>149</v>
@@ -9635,7 +9634,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B565" s="0" t="s">
         <v>151</v>
@@ -9652,7 +9651,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B566" s="0" t="s">
         <v>151</v>
@@ -9669,7 +9668,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B567" s="0" t="s">
         <v>153</v>
@@ -9686,7 +9685,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B568" s="0" t="s">
         <v>153</v>
@@ -9703,7 +9702,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B569" s="0" t="s">
         <v>155</v>
@@ -9720,7 +9719,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B570" s="0" t="s">
         <v>155</v>
@@ -9737,7 +9736,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>157</v>
@@ -9754,7 +9753,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>157</v>
@@ -9771,7 +9770,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>159</v>
@@ -9788,7 +9787,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>159</v>
@@ -9805,7 +9804,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>161</v>
@@ -9822,7 +9821,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B576" s="0" t="s">
         <v>161</v>
@@ -9839,7 +9838,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B577" s="0" t="s">
         <v>163</v>
@@ -9856,7 +9855,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>163</v>
@@ -9873,7 +9872,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B579" s="0" t="s">
         <v>165</v>
@@ -9890,7 +9889,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>165</v>
@@ -9907,7 +9906,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>167</v>
@@ -9924,7 +9923,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B582" s="0" t="s">
         <v>167</v>
@@ -9941,7 +9940,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>169</v>
@@ -9958,7 +9957,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>169</v>
@@ -9975,7 +9974,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>171</v>
@@ -9992,7 +9991,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B586" s="0" t="s">
         <v>171</v>
@@ -10009,7 +10008,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>173</v>
@@ -10026,7 +10025,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B588" s="0" t="s">
         <v>173</v>
@@ -10043,7 +10042,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B589" s="0" t="s">
         <v>175</v>
@@ -10060,7 +10059,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>175</v>
@@ -10077,7 +10076,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B591" s="0" t="s">
         <v>177</v>
@@ -10094,7 +10093,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B592" s="0" t="s">
         <v>177</v>
@@ -10111,7 +10110,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B593" s="0" t="s">
         <v>179</v>
@@ -10128,7 +10127,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B594" s="0" t="s">
         <v>179</v>
@@ -10145,7 +10144,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B595" s="0" t="s">
         <v>181</v>
@@ -10162,7 +10161,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B596" s="0" t="s">
         <v>181</v>
@@ -10179,7 +10178,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B597" s="0" t="s">
         <v>183</v>
@@ -10196,7 +10195,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>183</v>
@@ -10213,7 +10212,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B599" s="0" t="s">
         <v>185</v>
@@ -10230,7 +10229,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>185</v>
@@ -10247,7 +10246,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>187</v>
@@ -10264,7 +10263,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>187</v>
@@ -10281,7 +10280,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>189</v>
@@ -10298,7 +10297,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>189</v>
@@ -10315,7 +10314,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>191</v>
@@ -10332,7 +10331,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B606" s="0" t="s">
         <v>191</v>
@@ -10349,7 +10348,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B607" s="0" t="s">
         <v>193</v>
@@ -10366,7 +10365,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B608" s="0" t="s">
         <v>193</v>
@@ -10383,7 +10382,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B609" s="0" t="s">
         <v>195</v>
@@ -10400,7 +10399,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B610" s="0" t="s">
         <v>195</v>
@@ -10417,7 +10416,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B611" s="0" t="s">
         <v>197</v>
@@ -10434,7 +10433,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B612" s="0" t="s">
         <v>197</v>
@@ -10451,7 +10450,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B613" s="0" t="s">
         <v>199</v>
@@ -10468,7 +10467,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>199</v>
@@ -10485,7 +10484,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>201</v>
@@ -10502,7 +10501,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>201</v>
@@ -10519,7 +10518,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>203</v>
@@ -10536,7 +10535,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>203</v>
@@ -10553,7 +10552,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>205</v>
@@ -10570,7 +10569,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>205</v>
@@ -10587,7 +10586,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>207</v>
@@ -10601,7 +10600,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>207</v>
@@ -10615,7 +10614,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>209</v>
@@ -10632,7 +10631,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>209</v>
@@ -10649,7 +10648,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>211</v>
@@ -10666,7 +10665,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>211</v>
@@ -10683,7 +10682,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>213</v>
@@ -10700,7 +10699,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B628" s="0" t="s">
         <v>213</v>
@@ -10717,7 +10716,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>215</v>
@@ -10731,7 +10730,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>215</v>
@@ -10745,7 +10744,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B631" s="0" t="s">
         <v>217</v>
@@ -10759,7 +10758,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>217</v>
@@ -10773,7 +10772,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>219</v>
@@ -10787,7 +10786,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>219</v>
@@ -10801,7 +10800,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B635" s="0" t="s">
         <v>221</v>
@@ -10815,7 +10814,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>221</v>
@@ -10829,7 +10828,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>223</v>
@@ -10843,7 +10842,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>223</v>
@@ -10857,7 +10856,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>225</v>
@@ -10871,7 +10870,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>225</v>
@@ -10885,7 +10884,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>227</v>
@@ -10899,7 +10898,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>227</v>
@@ -10913,7 +10912,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>229</v>
@@ -10927,7 +10926,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>229</v>
@@ -10941,7 +10940,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>231</v>
@@ -10955,7 +10954,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>231</v>
@@ -10969,7 +10968,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>233</v>
@@ -10983,7 +10982,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>233</v>
@@ -10997,7 +10996,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>235</v>
@@ -11011,7 +11010,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>235</v>
@@ -11025,7 +11024,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>237</v>
@@ -11039,7 +11038,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>237</v>
@@ -11053,7 +11052,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>239</v>
@@ -11067,7 +11066,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>239</v>
@@ -11081,7 +11080,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>241</v>
@@ -11095,7 +11094,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>241</v>
@@ -11109,7 +11108,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>243</v>
@@ -11123,7 +11122,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>243</v>
@@ -11137,7 +11136,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>245</v>
@@ -11151,7 +11150,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>245</v>
@@ -11165,7 +11164,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>247</v>
@@ -11179,7 +11178,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>247</v>
@@ -11193,7 +11192,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>249</v>
@@ -11207,7 +11206,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>249</v>
@@ -11221,7 +11220,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B665" s="0" t="s">
         <v>251</v>
@@ -11235,7 +11234,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B666" s="0" t="s">
         <v>251</v>
@@ -11249,7 +11248,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>253</v>
@@ -11263,7 +11262,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>253</v>
@@ -11277,7 +11276,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>255</v>
@@ -11291,7 +11290,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>255</v>
@@ -11305,7 +11304,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>257</v>
@@ -11319,7 +11318,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>257</v>
@@ -11333,7 +11332,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B673" s="0" t="s">
         <v>259</v>
@@ -11347,7 +11346,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>259</v>
@@ -11361,7 +11360,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B675" s="0" t="s">
         <v>261</v>
@@ -11375,7 +11374,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>261</v>
@@ -11389,7 +11388,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>263</v>
@@ -11403,7 +11402,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>263</v>
@@ -11417,7 +11416,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B679" s="0" t="s">
         <v>265</v>
@@ -11431,7 +11430,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B680" s="0" t="s">
         <v>265</v>
@@ -11445,7 +11444,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B681" s="0" t="s">
         <v>267</v>
@@ -11459,7 +11458,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>267</v>
@@ -11473,7 +11472,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>269</v>
@@ -11487,7 +11486,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B684" s="0" t="s">
         <v>269</v>
@@ -11501,7 +11500,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>271</v>
@@ -11515,7 +11514,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B686" s="0" t="s">
         <v>271</v>
@@ -11529,7 +11528,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B687" s="0" t="s">
         <v>273</v>
@@ -11543,7 +11542,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>273</v>
@@ -11557,7 +11556,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>275</v>
@@ -11571,7 +11570,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>275</v>
@@ -11585,7 +11584,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B691" s="0" t="s">
         <v>277</v>
@@ -11599,7 +11598,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B692" s="0" t="s">
         <v>277</v>
@@ -11613,7 +11612,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>279</v>
@@ -11627,7 +11626,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B694" s="0" t="s">
         <v>279</v>
@@ -11641,7 +11640,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>281</v>
@@ -11655,7 +11654,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="n">
-        <v>45697.8555423058</v>
+        <v>45697.8555423032</v>
       </c>
       <c r="B696" s="0" t="s">
         <v>281</v>
@@ -11664,6 +11663,4516 @@
         <v>171206</v>
       </c>
       <c r="E696" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C697" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="D697" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="E697" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C698" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="D698" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="E698" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D699" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E699" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B700" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C700" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D700" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E700" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C701" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D701" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E701" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B702" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C702" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D702" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E702" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B703" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C703" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D703" s="0" t="n">
+        <v>5742</v>
+      </c>
+      <c r="E703" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B704" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C704" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D704" s="0" t="n">
+        <v>5742</v>
+      </c>
+      <c r="E704" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B705" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="D705" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E705" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B706" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="D706" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E706" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B707" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C707" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="D707" s="0" t="n">
+        <v>641</v>
+      </c>
+      <c r="E707" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B708" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C708" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="D708" s="0" t="n">
+        <v>641</v>
+      </c>
+      <c r="E708" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B709" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C709" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D709" s="0" t="n">
+        <v>5736</v>
+      </c>
+      <c r="E709" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B710" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C710" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D710" s="0" t="n">
+        <v>5736</v>
+      </c>
+      <c r="E710" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B711" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C711" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D711" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E711" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B712" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C712" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D712" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E712" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B713" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C713" s="0" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D713" s="0" t="n">
+        <v>18106</v>
+      </c>
+      <c r="E713" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B714" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C714" s="0" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D714" s="0" t="n">
+        <v>18106</v>
+      </c>
+      <c r="E714" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B715" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C715" s="0" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D715" s="0" t="n">
+        <v>18123</v>
+      </c>
+      <c r="E715" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C716" s="0" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D716" s="0" t="n">
+        <v>18123</v>
+      </c>
+      <c r="E716" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B717" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C717" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D717" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E717" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C718" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D718" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E718" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B719" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C719" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D719" s="0" t="n">
+        <v>9378</v>
+      </c>
+      <c r="E719" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B720" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C720" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D720" s="0" t="n">
+        <v>9378</v>
+      </c>
+      <c r="E720" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B721" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C721" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D721" s="0" t="n">
+        <v>9142</v>
+      </c>
+      <c r="E721" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B722" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C722" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D722" s="0" t="n">
+        <v>9142</v>
+      </c>
+      <c r="E722" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C723" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D723" s="0" t="n">
+        <v>9151</v>
+      </c>
+      <c r="E723" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B724" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C724" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D724" s="0" t="n">
+        <v>9151</v>
+      </c>
+      <c r="E724" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B725" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C725" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D725" s="0" t="n">
+        <v>5692</v>
+      </c>
+      <c r="E725" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B726" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C726" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D726" s="0" t="n">
+        <v>5692</v>
+      </c>
+      <c r="E726" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B727" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C727" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D727" s="0" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E727" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B728" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C728" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D728" s="0" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E728" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B729" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C729" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D729" s="0" t="n">
+        <v>5698</v>
+      </c>
+      <c r="E729" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B730" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C730" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D730" s="0" t="n">
+        <v>5698</v>
+      </c>
+      <c r="E730" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B731" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C731" s="0" t="n">
+        <v>3674</v>
+      </c>
+      <c r="D731" s="0" t="n">
+        <v>3724</v>
+      </c>
+      <c r="E731" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B732" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C732" s="0" t="n">
+        <v>3674</v>
+      </c>
+      <c r="D732" s="0" t="n">
+        <v>3724</v>
+      </c>
+      <c r="E732" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B733" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C733" s="0" t="n">
+        <v>3674</v>
+      </c>
+      <c r="E733" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B734" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C734" s="0" t="n">
+        <v>3674</v>
+      </c>
+      <c r="E734" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B735" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C735" s="0" t="n">
+        <v>3674</v>
+      </c>
+      <c r="D735" s="0" t="n">
+        <v>3731</v>
+      </c>
+      <c r="E735" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B736" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C736" s="0" t="n">
+        <v>3674</v>
+      </c>
+      <c r="D736" s="0" t="n">
+        <v>3731</v>
+      </c>
+      <c r="E736" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B737" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C737" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D737" s="0" t="n">
+        <v>1898</v>
+      </c>
+      <c r="E737" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B738" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C738" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D738" s="0" t="n">
+        <v>1898</v>
+      </c>
+      <c r="E738" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B739" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C739" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D739" s="0" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B740" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C740" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D740" s="0" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E740" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B741" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C741" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D741" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E741" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B742" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C742" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D742" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E742" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B743" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C743" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D743" s="0" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E743" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B744" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C744" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D744" s="0" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E744" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B745" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C745" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D745" s="0" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E745" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C746" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D746" s="0" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E746" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B747" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C747" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D747" s="0" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E747" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B748" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C748" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D748" s="0" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E748" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B749" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C749" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="D749" s="0" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E749" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B750" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C750" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="D750" s="0" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E750" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B751" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C751" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="D751" s="0" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E751" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B752" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C752" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="D752" s="0" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E752" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B753" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C753" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D753" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="E753" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B754" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C754" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D754" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="E754" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B755" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C755" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D755" s="0" t="n">
+        <v>537</v>
+      </c>
+      <c r="E755" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B756" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C756" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D756" s="0" t="n">
+        <v>537</v>
+      </c>
+      <c r="E756" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B757" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C757" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="D757" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="E757" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B758" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C758" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="D758" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="E758" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B759" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C759" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D759" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="E759" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B760" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C760" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D760" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="E760" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B761" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C761" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D761" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="E761" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B762" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C762" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D762" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="E762" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B763" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C763" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D763" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="E763" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B764" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C764" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D764" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="E764" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B765" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C765" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="D765" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E765" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B766" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C766" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="D766" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E766" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B767" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C767" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D767" s="0" t="n">
+        <v>5886</v>
+      </c>
+      <c r="E767" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B768" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C768" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D768" s="0" t="n">
+        <v>5886</v>
+      </c>
+      <c r="E768" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B769" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C769" s="0" t="n">
+        <v>5313</v>
+      </c>
+      <c r="D769" s="0" t="n">
+        <v>6256</v>
+      </c>
+      <c r="E769" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B770" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C770" s="0" t="n">
+        <v>5313</v>
+      </c>
+      <c r="D770" s="0" t="n">
+        <v>6256</v>
+      </c>
+      <c r="E770" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B771" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C771" s="0" t="n">
+        <v>5741</v>
+      </c>
+      <c r="D771" s="0" t="n">
+        <v>5996</v>
+      </c>
+      <c r="E771" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B772" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C772" s="0" t="n">
+        <v>5741</v>
+      </c>
+      <c r="D772" s="0" t="n">
+        <v>5996</v>
+      </c>
+      <c r="E772" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B773" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C773" s="0" t="n">
+        <v>5580</v>
+      </c>
+      <c r="D773" s="0" t="n">
+        <v>5692</v>
+      </c>
+      <c r="E773" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B774" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C774" s="0" t="n">
+        <v>5580</v>
+      </c>
+      <c r="D774" s="0" t="n">
+        <v>5692</v>
+      </c>
+      <c r="E774" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B775" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C775" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D775" s="0" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E775" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B776" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C776" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D776" s="0" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E776" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B777" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C777" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D777" s="0" t="n">
+        <v>6411</v>
+      </c>
+      <c r="E777" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B778" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C778" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D778" s="0" t="n">
+        <v>6411</v>
+      </c>
+      <c r="E778" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B779" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C779" s="0" t="n">
+        <v>5825</v>
+      </c>
+      <c r="D779" s="0" t="n">
+        <v>6112</v>
+      </c>
+      <c r="E779" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B780" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C780" s="0" t="n">
+        <v>5825</v>
+      </c>
+      <c r="D780" s="0" t="n">
+        <v>6112</v>
+      </c>
+      <c r="E780" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B781" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C781" s="0" t="n">
+        <v>1456</v>
+      </c>
+      <c r="D781" s="0" t="n">
+        <v>1658</v>
+      </c>
+      <c r="E781" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B782" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C782" s="0" t="n">
+        <v>1456</v>
+      </c>
+      <c r="D782" s="0" t="n">
+        <v>1658</v>
+      </c>
+      <c r="E782" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B783" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C783" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="D783" s="0" t="n">
+        <v>719</v>
+      </c>
+      <c r="E783" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B784" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C784" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="D784" s="0" t="n">
+        <v>719</v>
+      </c>
+      <c r="E784" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B785" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C785" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="D785" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="E785" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B786" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C786" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="D786" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="E786" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B787" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C787" s="0" t="n">
+        <v>5769</v>
+      </c>
+      <c r="D787" s="0" t="n">
+        <v>5886</v>
+      </c>
+      <c r="E787" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B788" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C788" s="0" t="n">
+        <v>5769</v>
+      </c>
+      <c r="D788" s="0" t="n">
+        <v>5886</v>
+      </c>
+      <c r="E788" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B789" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C789" s="0" t="n">
+        <v>2829</v>
+      </c>
+      <c r="D789" s="0" t="n">
+        <v>3150</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B790" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C790" s="0" t="n">
+        <v>2829</v>
+      </c>
+      <c r="D790" s="0" t="n">
+        <v>3150</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B791" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C791" s="0" t="n">
+        <v>1456</v>
+      </c>
+      <c r="D791" s="0" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E791" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B792" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C792" s="0" t="n">
+        <v>1456</v>
+      </c>
+      <c r="D792" s="0" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E792" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B793" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C793" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="D793" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="E793" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B794" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C794" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="D794" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="E794" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B795" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C795" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="D795" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B796" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C796" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="D796" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="E796" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B797" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C797" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="D797" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="E797" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B798" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C798" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="D798" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="E798" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B799" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C799" s="0" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D799" s="0" t="n">
+        <v>2063</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B800" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C800" s="0" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D800" s="0" t="n">
+        <v>2063</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B801" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C801" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D801" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E801" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B802" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C802" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D802" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B803" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C803" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D803" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E803" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B804" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C804" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D804" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E804" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B805" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C805" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="D805" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="E805" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B806" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C806" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="D806" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="E806" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B807" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C807" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="D807" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C808" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="D808" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B809" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C809" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D809" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E809" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B810" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C810" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D810" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E810" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B811" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C811" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D811" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E811" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B812" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C812" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D812" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E812" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B813" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C813" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D813" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E813" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B814" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C814" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D814" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E814" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B815" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C815" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D815" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E815" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B816" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C816" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D816" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E816" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B817" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C817" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D817" s="0" t="n">
+        <v>1104</v>
+      </c>
+      <c r="E817" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B818" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C818" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D818" s="0" t="n">
+        <v>1104</v>
+      </c>
+      <c r="E818" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B819" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C819" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D819" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E819" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B820" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C820" s="0" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D820" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E820" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B821" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C821" s="0" t="n">
+        <v>2456</v>
+      </c>
+      <c r="D821" s="0" t="n">
+        <v>2655</v>
+      </c>
+      <c r="E821" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B822" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C822" s="0" t="n">
+        <v>2456</v>
+      </c>
+      <c r="D822" s="0" t="n">
+        <v>2655</v>
+      </c>
+      <c r="E822" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B823" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C823" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="D823" s="0" t="n">
+        <v>667</v>
+      </c>
+      <c r="E823" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B824" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C824" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="D824" s="0" t="n">
+        <v>667</v>
+      </c>
+      <c r="E824" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B825" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C825" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D825" s="0" t="n">
+        <v>1114</v>
+      </c>
+      <c r="E825" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B826" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C826" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D826" s="0" t="n">
+        <v>1114</v>
+      </c>
+      <c r="E826" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B827" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C827" s="0" t="n">
+        <v>554</v>
+      </c>
+      <c r="D827" s="0" t="n">
+        <v>592</v>
+      </c>
+      <c r="E827" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B828" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C828" s="0" t="n">
+        <v>554</v>
+      </c>
+      <c r="D828" s="0" t="n">
+        <v>592</v>
+      </c>
+      <c r="E828" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B829" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C829" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D829" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E829" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B830" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C830" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D830" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E830" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B831" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C831" s="0" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D831" s="0" t="n">
+        <v>1168</v>
+      </c>
+      <c r="E831" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B832" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C832" s="0" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D832" s="0" t="n">
+        <v>1168</v>
+      </c>
+      <c r="E832" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B833" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C833" s="0" t="n">
+        <v>1291</v>
+      </c>
+      <c r="D833" s="0" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E833" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B834" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C834" s="0" t="n">
+        <v>1291</v>
+      </c>
+      <c r="D834" s="0" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E834" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B835" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C835" s="0" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D835" s="0" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E835" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B836" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C836" s="0" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D836" s="0" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E836" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B837" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C837" s="0" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D837" s="0" t="n">
+        <v>1398</v>
+      </c>
+      <c r="E837" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B838" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C838" s="0" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D838" s="0" t="n">
+        <v>1398</v>
+      </c>
+      <c r="E838" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B839" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C839" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D839" s="0" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E839" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B840" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C840" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D840" s="0" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E840" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B841" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C841" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D841" s="0" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E841" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B842" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C842" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D842" s="0" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E842" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B843" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C843" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D843" s="0" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E843" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B844" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C844" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D844" s="0" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E844" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B845" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C845" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D845" s="0" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E845" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B846" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C846" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D846" s="0" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E846" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B847" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C847" s="0" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D847" s="0" t="n">
+        <v>1458</v>
+      </c>
+      <c r="E847" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B848" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C848" s="0" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D848" s="0" t="n">
+        <v>1458</v>
+      </c>
+      <c r="E848" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B849" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C849" s="0" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D849" s="0" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E849" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B850" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C850" s="0" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D850" s="0" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E850" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B851" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C851" s="0" t="n">
+        <v>1156</v>
+      </c>
+      <c r="D851" s="0" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E851" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B852" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C852" s="0" t="n">
+        <v>1156</v>
+      </c>
+      <c r="D852" s="0" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E852" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B853" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C853" s="0" t="n">
+        <v>6688</v>
+      </c>
+      <c r="D853" s="0" t="n">
+        <v>7096</v>
+      </c>
+      <c r="E853" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B854" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C854" s="0" t="n">
+        <v>6688</v>
+      </c>
+      <c r="D854" s="0" t="n">
+        <v>7096</v>
+      </c>
+      <c r="E854" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B855" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C855" s="0" t="n">
+        <v>5356</v>
+      </c>
+      <c r="D855" s="0" t="n">
+        <v>5742</v>
+      </c>
+      <c r="E855" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B856" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C856" s="0" t="n">
+        <v>5356</v>
+      </c>
+      <c r="D856" s="0" t="n">
+        <v>5742</v>
+      </c>
+      <c r="E856" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B857" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C857" s="0" t="n">
+        <v>5457</v>
+      </c>
+      <c r="D857" s="0" t="n">
+        <v>5783</v>
+      </c>
+      <c r="E857" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B858" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C858" s="0" t="n">
+        <v>5457</v>
+      </c>
+      <c r="D858" s="0" t="n">
+        <v>5783</v>
+      </c>
+      <c r="E858" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B859" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C859" s="0" t="n">
+        <v>2729</v>
+      </c>
+      <c r="D859" s="0" t="n">
+        <v>2985</v>
+      </c>
+      <c r="E859" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B860" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C860" s="0" t="n">
+        <v>2729</v>
+      </c>
+      <c r="D860" s="0" t="n">
+        <v>2985</v>
+      </c>
+      <c r="E860" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B861" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C861" s="0" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D861" s="0" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E861" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B862" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C862" s="0" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D862" s="0" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E862" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B863" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C863" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="D863" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="E863" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B864" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C864" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="D864" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="E864" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B865" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C865" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="D865" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="E865" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B866" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C866" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="D866" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="E866" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B867" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C867" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D867" s="0" t="n">
+        <v>8290</v>
+      </c>
+      <c r="E867" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B868" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C868" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D868" s="0" t="n">
+        <v>8290</v>
+      </c>
+      <c r="E868" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B869" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C869" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D869" s="0" t="n">
+        <v>6632</v>
+      </c>
+      <c r="E869" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B870" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C870" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D870" s="0" t="n">
+        <v>6632</v>
+      </c>
+      <c r="E870" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B871" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C871" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D871" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E871" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B872" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C872" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D872" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E872" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B873" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C873" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D873" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E873" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B874" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C874" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D874" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E874" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B875" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C875" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D875" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E875" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B876" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C876" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D876" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E876" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C877" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D877" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E877" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C878" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D878" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E878" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C879" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D879" s="0" t="n">
+        <v>6632</v>
+      </c>
+      <c r="E879" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B880" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C880" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D880" s="0" t="n">
+        <v>6632</v>
+      </c>
+      <c r="E880" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B881" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C881" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D881" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E881" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B882" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C882" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D882" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E882" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C883" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D883" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E883" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C884" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D884" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E884" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C885" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D885" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E885" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C886" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D886" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E886" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B887" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C887" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D887" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E887" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C888" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D888" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E888" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C889" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D889" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E889" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C890" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D890" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E890" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C891" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D891" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E891" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C892" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D892" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E892" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B893" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C893" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D893" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E893" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B894" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C894" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D894" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E894" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B895" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C895" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D895" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E895" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B896" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C896" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D896" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E896" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C897" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D897" s="0" t="n">
+        <v>7461</v>
+      </c>
+      <c r="E897" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C898" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D898" s="0" t="n">
+        <v>7461</v>
+      </c>
+      <c r="E898" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B899" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C899" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E899" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B900" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C900" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E900" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B901" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C901" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D901" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E901" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B902" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C902" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D902" s="0" t="n">
+        <v>6521</v>
+      </c>
+      <c r="E902" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B903" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C903" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D903" s="0" t="n">
+        <v>6908</v>
+      </c>
+      <c r="E903" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B904" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C904" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D904" s="0" t="n">
+        <v>6908</v>
+      </c>
+      <c r="E904" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C905" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D905" s="0" t="n">
+        <v>6908</v>
+      </c>
+      <c r="E905" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C906" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D906" s="0" t="n">
+        <v>6908</v>
+      </c>
+      <c r="E906" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C907" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E907" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C908" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E908" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C909" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E909" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C910" s="0" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E910" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C911" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="E911" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C912" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="E912" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C913" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="E913" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C914" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="E914" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C915" s="0" t="n">
+        <v>5457</v>
+      </c>
+      <c r="E915" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C916" s="0" t="n">
+        <v>5457</v>
+      </c>
+      <c r="E916" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C917" s="0" t="n">
+        <v>2729</v>
+      </c>
+      <c r="E917" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C918" s="0" t="n">
+        <v>2729</v>
+      </c>
+      <c r="E918" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C919" s="0" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E919" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C920" s="0" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E920" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C921" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="E921" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C922" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="E922" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C923" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="E923" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C924" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="E924" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C925" s="0" t="n">
+        <v>2774</v>
+      </c>
+      <c r="E925" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C926" s="0" t="n">
+        <v>2774</v>
+      </c>
+      <c r="E926" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C927" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E927" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C928" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E928" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C929" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E929" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C930" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E930" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C931" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E931" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C932" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E932" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C933" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="E933" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C934" s="0" t="n">
+        <v>5658</v>
+      </c>
+      <c r="E934" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C935" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E935" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C936" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="E936" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C937" s="0" t="n">
+        <v>2774</v>
+      </c>
+      <c r="E937" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C938" s="0" t="n">
+        <v>2774</v>
+      </c>
+      <c r="E938" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C939" s="0" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E939" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C940" s="0" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E940" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C941" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="E941" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C942" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="E942" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C943" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="E943" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C944" s="0" t="n">
+        <v>963</v>
+      </c>
+      <c r="E944" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C945" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="E945" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C946" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="E946" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C947" s="0" t="n">
+        <v>2675</v>
+      </c>
+      <c r="E947" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C948" s="0" t="n">
+        <v>2675</v>
+      </c>
+      <c r="E948" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C949" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="E949" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C950" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="E950" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C951" s="0" t="n">
+        <v>5351</v>
+      </c>
+      <c r="E951" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B952" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C952" s="0" t="n">
+        <v>5351</v>
+      </c>
+      <c r="E952" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B953" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C953" s="0" t="n">
+        <v>1427</v>
+      </c>
+      <c r="E953" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B954" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C954" s="0" t="n">
+        <v>1427</v>
+      </c>
+      <c r="E954" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B955" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C955" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="E955" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B956" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C956" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="E956" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B957" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C957" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="E957" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B958" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C958" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="E958" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C959" s="0" t="n">
+        <v>17816</v>
+      </c>
+      <c r="E959" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B960" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C960" s="0" t="n">
+        <v>17816</v>
+      </c>
+      <c r="E960" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C961" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="E961" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B962" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C962" s="0" t="n">
+        <v>9060</v>
+      </c>
+      <c r="E962" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C963" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="E963" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B964" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C964" s="0" t="n">
+        <v>5641</v>
+      </c>
+      <c r="E964" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B965" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C965" s="0" t="n">
+        <v>698</v>
+      </c>
+      <c r="E965" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C966" s="0" t="n">
+        <v>698</v>
+      </c>
+      <c r="E966" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C967" s="0" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E967" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B968" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C968" s="0" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E968" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C969" s="0" t="n">
+        <v>5351</v>
+      </c>
+      <c r="E969" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C970" s="0" t="n">
+        <v>5351</v>
+      </c>
+      <c r="E970" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C971" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="E971" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C972" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="E972" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C973" s="0" t="n">
+        <v>174151</v>
+      </c>
+      <c r="E973" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="2" t="n">
+        <v>45698.9205676443</v>
+      </c>
+      <c r="B974" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C974" s="0" t="n">
+        <v>174151</v>
+      </c>
+      <c r="E974" s="0" t="s">
         <v>282</v>
       </c>
     </row>

--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1808"/>
+  <dimension ref="A1:E1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34200,7 +34200,7 @@
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
@@ -34242,7 +34242,7 @@
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
@@ -34366,7 +34366,7 @@
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
@@ -34429,7 +34429,7 @@
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1694" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
@@ -34763,7 +34763,7 @@
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
@@ -35057,7 +35057,7 @@
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
@@ -35078,7 +35078,7 @@
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
@@ -35162,7 +35162,7 @@
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
@@ -35204,7 +35204,7 @@
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
@@ -35351,7 +35351,7 @@
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
@@ -35477,7 +35477,7 @@
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
@@ -35603,7 +35603,7 @@
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
@@ -35687,7 +35687,7 @@
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
@@ -35750,7 +35750,7 @@
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1746" t="inlineStr">
         <is>
@@ -35813,7 +35813,7 @@
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
@@ -35916,7 +35916,7 @@
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1756" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1757" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1758" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1759" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1761" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1762" t="inlineStr">
         <is>
@@ -36147,7 +36147,7 @@
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
@@ -36168,7 +36168,7 @@
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1764" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1765" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
@@ -36231,7 +36231,7 @@
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1770" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1775" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1776" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1777" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1778" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1779" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1780" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1781" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1782" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1784" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1790" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1791" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1792" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1793" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1795" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1796" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1797" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1798" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1799" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1800" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1802" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1803" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1804" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1805" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1806" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1807" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
-        <v>45701.8873072424</v>
+        <v>45701.88730724537</v>
       </c>
       <c r="B1808" t="inlineStr">
         <is>
@@ -37036,6 +37036,2847 @@
       </c>
       <c r="D1808" t="inlineStr"/>
       <c r="E1808" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>1 грам абонаментно златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>179</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>197</v>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-abonamentno-zlatno-kulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>0,25 грама златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>5576</v>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>5603</v>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-vienska-filharmoniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1813" t="inlineStr"/>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>571</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>626</v>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%bd%d0%b0-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b8%d0%b9%d1%81%d0%ba%d0%b0-%d1%84%d0%b8%d0%bb%d1%85%d0%b0%d1%80%d0%bc%d0%be%d0%bd%d0%b8%d1%8f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Канадски кленов лист</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>5598</v>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-kanadski-klenov-list/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийско кенгуру</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>5576</v>
+      </c>
+      <c r="E1816" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliysko-kenguru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>17378</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>17667</v>
+      </c>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>17378</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>17684</v>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>0,25 г златно кюлче Tavex, подаръчен пакет</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>71</v>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex-podarachen-paket/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>50 x 1 грам комбинирано кюлче Valcambi Suisse CombiBar</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>8837</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>9155</v>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-kombinirano-zlatno-kulche-valcambi-combibar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>8837</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>8920</v>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>8837</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>8929</v>
+      </c>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>5503</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>5555</v>
+      </c>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Suisse</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>5503</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>5557</v>
+      </c>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-suisse/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>5503</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>5560</v>
+      </c>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>3583</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>3634</v>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>3583</v>
+      </c>
+      <c r="D1827" t="inlineStr"/>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>3583</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>3641</v>
+      </c>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>1852</v>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>1869</v>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>1854</v>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>905</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>978</v>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>905</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>992</v>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>905</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>979</v>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>939</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>1028</v>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>913</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>465</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>520</v>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-5-grama-zlatno-kyulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>465</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>524</v>
+      </c>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/dva-grama-i-polovina-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>2 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>372</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>416</v>
+      </c>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>182</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>182</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>221</v>
+      </c>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>182</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>217</v>
+      </c>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>208</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>264</v>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски орел</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>5743</v>
+      </c>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-amerikanski-orel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>20 долара двоен орел лейди Либърти</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>5182</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>6104</v>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-dolara-dvoen-orel-lejdi-libarti/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски бизон</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>5851</v>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-amerikanski-bizon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Кругерранд, Южна Африка</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>5443</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>5555</v>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-krugerrand-yujna-afrika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Слон Южна Африка - Големите 5</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>5519</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>5635</v>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-slon-yuzhna-afrika-golemite-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>6256</v>
+      </c>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>5682</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>5964</v>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>568</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>701</v>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>271</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>396</v>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>5627</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>5743</v>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>3074</v>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>1591</v>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>568</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>691</v>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>271</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>396</v>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>Руска златна монета 5 рубли Николай II</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>741</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>972</v>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-5-rubli-nikolay-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>10 рубли Николай II Русия</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-rubli-nikolai-ii-rusia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>20 френски франка Наполеон III</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-%d1%84%d1%80%d0%b0%d0%bd%d0%ba%d0%b0-%d1%84%d1%80%d0%b5%d0%bd%d1%81%d0%ba%d0%b8-%d0%bd%d0%b0%d0%bf%d0%be%d0%bb%d0%b5%d0%be%d0%bd-%d1%81-%d0%bb%d0%b0%d0%b2%d1%80%d0%be%d0%b2-%d0%b2%d0%b5%d0%bd%d0%b5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>10 франка френски Наполеон III</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>561</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>642</v>
+      </c>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>10 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>561</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>642</v>
+      </c>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-zlatna-moneta-napoleon-iii-s-lavrov-venets/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>Златна монета 20 френски франка Серес</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-seres/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Гениус</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-frenski-franka-genius/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>Златна монета 20 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>20 белгийски франка златна монета Леополд II</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-belgiiski-franka-leopold-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>20 лири Виктор Емануил II Италия</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/italian-20lira-emanuele/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>20 лири златна монета Умберто I, Италия</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-liri-zlatna-moneta-umberto-i-italiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>4 австрийски дуката златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>2395</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>2590</v>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-avstriiski-dukata-franc-iosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>1 австрийски дукат златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>616</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-1-avstriiski-dukat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>8 форинта/20 франка Франц Йосиф Унгария</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>1088</v>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-forinta-20-franka-franc-iosif-ungariia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>Златна монета 4 флорина/10 франка Франц Йосиф, Австрия</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>578</v>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-florina-10-franka-franc-iosif-avstria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Швейцария Вренели</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-franka-shveitsariya-vreneli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>10 гулдена Вилхелмина Холандия</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-guldena-vilhemina-holandiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>20 германски марки Вилхелм II</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>1354</v>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-germanski-marki-vilhelm-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>Златен Мемориален Суверен Чарлз III Великобритания 2022г.</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>1358</v>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-memorialen-suveren-charles-iii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>Златен Суверен Чарлз III Великобритания</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-charles-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>Златен суверен Елизабет II 1957-2021 Великобритания</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>1323</v>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/suveren-elizabet-ii-velikobritaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>Златен суверен Едуард VII Великобритания</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-eduard-vii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>Златен суверен Джордж V Великобритания</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-jorge-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>Златен суверен Виктория Великобритания</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>1358</v>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-viktoriya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>Британски златен суверен Елизабет II, 2022г.</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1884" t="inlineStr"/>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-britanski-suveren-elizabet-ii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Тунис</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-franka-zlatna-moneta-tunis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>Златна монета 100 турски куруша</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D1886" t="inlineStr"/>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-turski-kurusha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>50 песос Мексико</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>6523</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>6924</v>
+      </c>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>Златна монета 100 австрийски корони Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>5224</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>5603</v>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-avstriyski-koroni-franc-yosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>5323</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>5643</v>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C1890" t="n">
+        <v>2661</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>2912</v>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>1419</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>1595</v>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>532</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>676</v>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>177</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>269</v>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2022</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>8089</v>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-tiger-2022-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2021</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>6471</v>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-ox-2021-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Мишката 2020</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-mishkata-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Кучето 2018</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-22/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2017</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni40s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Маймуната 2016</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-maimunata-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Змията 2013</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>6471</v>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zmiyata-2013/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>1 унция австралиисйки лунар година на дракона 2012</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-drakona-2012/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Заека 2011</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-moneta-avstraliiski-lunar-zaek-2011/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2009</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-vola-2009/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Мишката 2008</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-moneta-lunar-mishka-2008/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Прасето 2007</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-praseto-2007/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2005</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-petela-2005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Маймуната 2004</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%b5%d0%bd-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b0%d0%bb%d0%b8%d0%b9%d1%81%d0%ba%d0%b8-%d0%bb%d1%83%d0%bd%d0%b0%d1%80-%d0%b3%d0%be%d0%b4%d0%b8-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Козата 2003</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийки Лунар 2000 година на дракона</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>7280</v>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyki-lunar-2000-godina-drakona/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2010</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1910" t="inlineStr"/>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-tigura-2010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Кучето 2006</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>6363</v>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-kucheto-2006/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 1998</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-tigara-1998/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 1997</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>6741</v>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-vola-1997/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Мишката 1996</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1914" t="inlineStr"/>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni42s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Коня 2014</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1915" t="inlineStr"/>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-konq-2014/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1916" t="inlineStr"/>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1917" t="inlineStr"/>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1918" t="inlineStr"/>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1919" t="inlineStr"/>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1920" t="inlineStr"/>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1921" t="inlineStr"/>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1922" t="inlineStr"/>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1923" t="inlineStr"/>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Драконът на Тюдор 2024г.</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1924" t="inlineStr"/>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tudorite-drakonat-na-tudor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Еднорогът на Сиймор 2024 г.</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1925" t="inlineStr"/>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-ednorogut-na-siimor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Бикът от Кларънс 2023 г.</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1926" t="inlineStr"/>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-bikut-ot-klaruns-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия - Елизабет II</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1927" t="inlineStr"/>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya-elizabet-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Йейлът на Бофорт 2023 г.</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1928" t="inlineStr"/>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-zlatna-moneta-pazitelite-na-tyudorite-yeylut-na-bofort-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>1/2 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1929" t="inlineStr"/>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>1/4 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1930" t="inlineStr"/>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1931" t="inlineStr"/>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1932" t="inlineStr"/>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-zaek-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>1/10 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1933" t="inlineStr"/>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1934" t="inlineStr"/>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>1/20 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1935" t="inlineStr"/>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1936" t="inlineStr"/>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1937" t="inlineStr"/>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1938" t="inlineStr"/>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1939" t="inlineStr"/>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1940" t="inlineStr"/>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1941" t="inlineStr"/>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1942" t="inlineStr"/>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>10 крони Кристиян X Дания</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1943" t="inlineStr"/>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-kroni-kristiyan-x-daniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>10 Гулдена Вилхелм III Холандия</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1944" t="inlineStr"/>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2022</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1945" t="inlineStr"/>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Златна монета 10 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C1946" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1946" t="inlineStr"/>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="2" t="n">
+        <v>45705.0167971608</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>1 килограм златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>5573</v>
+      </c>
+      <c r="D1947" t="inlineStr"/>
+      <c r="E1947" t="inlineStr">
         <is>
           <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
         </is>

--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1947"/>
+  <dimension ref="A1:E2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37043,7 +37043,7 @@
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1809" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1810" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1811" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1812" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1813" t="inlineStr">
         <is>
@@ -37146,7 +37146,7 @@
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1814" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1815" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1816" t="inlineStr">
         <is>
@@ -37209,7 +37209,7 @@
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1817" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1818" t="inlineStr">
         <is>
@@ -37251,7 +37251,7 @@
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1819" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1820" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1821" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1822" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1823" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1824" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1825" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1826" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1827" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1828" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1829" t="inlineStr">
         <is>
@@ -37480,7 +37480,7 @@
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1830" t="inlineStr">
         <is>
@@ -37501,7 +37501,7 @@
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1831" t="inlineStr">
         <is>
@@ -37522,7 +37522,7 @@
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
@@ -37543,7 +37543,7 @@
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
@@ -37564,7 +37564,7 @@
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1834" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1838" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1839" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1841" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1842" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1844" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1845" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1847" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1848" t="inlineStr">
         <is>
@@ -37879,7 +37879,7 @@
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1850" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
     </row>
     <row r="1851">
       <c r="A1851" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1851" t="inlineStr">
         <is>
@@ -37942,7 +37942,7 @@
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
     </row>
     <row r="1855">
       <c r="A1855" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
@@ -38026,7 +38026,7 @@
     </row>
     <row r="1856">
       <c r="A1856" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
     </row>
     <row r="1857">
       <c r="A1857" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
     </row>
     <row r="1858">
       <c r="A1858" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1858" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
     </row>
     <row r="1859">
       <c r="A1859" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
     </row>
     <row r="1860">
       <c r="A1860" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
@@ -38131,7 +38131,7 @@
     </row>
     <row r="1861">
       <c r="A1861" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
@@ -38152,7 +38152,7 @@
     </row>
     <row r="1862">
       <c r="A1862" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
     </row>
     <row r="1863">
       <c r="A1863" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
     </row>
     <row r="1864">
       <c r="A1864" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
     </row>
     <row r="1865">
       <c r="A1865" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
     </row>
     <row r="1866">
       <c r="A1866" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1866" t="inlineStr">
         <is>
@@ -38257,7 +38257,7 @@
     </row>
     <row r="1867">
       <c r="A1867" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
     </row>
     <row r="1868">
       <c r="A1868" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1868" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
     </row>
     <row r="1869">
       <c r="A1869" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
     </row>
     <row r="1870">
       <c r="A1870" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
@@ -38341,7 +38341,7 @@
     </row>
     <row r="1871">
       <c r="A1871" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
     </row>
     <row r="1872">
       <c r="A1872" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
     </row>
     <row r="1873">
       <c r="A1873" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
     </row>
     <row r="1874">
       <c r="A1874" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
     </row>
     <row r="1875">
       <c r="A1875" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
     </row>
     <row r="1876">
       <c r="A1876" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
     </row>
     <row r="1877">
       <c r="A1877" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
     </row>
     <row r="1878">
       <c r="A1878" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
     </row>
     <row r="1879">
       <c r="A1879" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1879" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
     </row>
     <row r="1880">
       <c r="A1880" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1880" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
     </row>
     <row r="1881">
       <c r="A1881" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1881" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
     </row>
     <row r="1882">
       <c r="A1882" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
     </row>
     <row r="1883">
       <c r="A1883" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
     </row>
     <row r="1884">
       <c r="A1884" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
@@ -38633,7 +38633,7 @@
     </row>
     <row r="1885">
       <c r="A1885" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
     </row>
     <row r="1886">
       <c r="A1886" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1886" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
     </row>
     <row r="1887">
       <c r="A1887" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
@@ -38694,7 +38694,7 @@
     </row>
     <row r="1888">
       <c r="A1888" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
     </row>
     <row r="1889">
       <c r="A1889" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
     </row>
     <row r="1890">
       <c r="A1890" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
     </row>
     <row r="1891">
       <c r="A1891" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
     </row>
     <row r="1892">
       <c r="A1892" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
     </row>
     <row r="1893">
       <c r="A1893" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
     </row>
     <row r="1894">
       <c r="A1894" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
     </row>
     <row r="1895">
       <c r="A1895" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
     </row>
     <row r="1896">
       <c r="A1896" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
@@ -38883,7 +38883,7 @@
     </row>
     <row r="1897">
       <c r="A1897" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
@@ -38904,7 +38904,7 @@
     </row>
     <row r="1898">
       <c r="A1898" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
     </row>
     <row r="1899">
       <c r="A1899" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
     </row>
     <row r="1900">
       <c r="A1900" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
     </row>
     <row r="1901">
       <c r="A1901" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
     </row>
     <row r="1902">
       <c r="A1902" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1902" t="inlineStr">
         <is>
@@ -39009,7 +39009,7 @@
     </row>
     <row r="1903">
       <c r="A1903" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
@@ -39030,7 +39030,7 @@
     </row>
     <row r="1904">
       <c r="A1904" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
     </row>
     <row r="1905">
       <c r="A1905" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
     </row>
     <row r="1906">
       <c r="A1906" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
     </row>
     <row r="1907">
       <c r="A1907" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1907" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
     </row>
     <row r="1908">
       <c r="A1908" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
     </row>
     <row r="1909">
       <c r="A1909" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1909" t="inlineStr">
         <is>
@@ -39156,7 +39156,7 @@
     </row>
     <row r="1910">
       <c r="A1910" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1910" t="inlineStr">
         <is>
@@ -39175,7 +39175,7 @@
     </row>
     <row r="1911">
       <c r="A1911" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
     </row>
     <row r="1912">
       <c r="A1912" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
     </row>
     <row r="1913">
       <c r="A1913" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
@@ -39238,7 +39238,7 @@
     </row>
     <row r="1914">
       <c r="A1914" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1914" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
     </row>
     <row r="1915">
       <c r="A1915" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1915" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
     </row>
     <row r="1916">
       <c r="A1916" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1916" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
     </row>
     <row r="1917">
       <c r="A1917" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1917" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
     </row>
     <row r="1918">
       <c r="A1918" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1918" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
     </row>
     <row r="1919">
       <c r="A1919" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1919" t="inlineStr">
         <is>
@@ -39352,7 +39352,7 @@
     </row>
     <row r="1920">
       <c r="A1920" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
     </row>
     <row r="1921">
       <c r="A1921" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1921" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
     </row>
     <row r="1922">
       <c r="A1922" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1922" t="inlineStr">
         <is>
@@ -39409,7 +39409,7 @@
     </row>
     <row r="1923">
       <c r="A1923" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
     </row>
     <row r="1924">
       <c r="A1924" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1924" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
     </row>
     <row r="1925">
       <c r="A1925" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
@@ -39466,7 +39466,7 @@
     </row>
     <row r="1926">
       <c r="A1926" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
     </row>
     <row r="1927">
       <c r="A1927" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
     </row>
     <row r="1928">
       <c r="A1928" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
     </row>
     <row r="1929">
       <c r="A1929" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
@@ -39542,7 +39542,7 @@
     </row>
     <row r="1930">
       <c r="A1930" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
     </row>
     <row r="1931">
       <c r="A1931" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
@@ -39580,7 +39580,7 @@
     </row>
     <row r="1932">
       <c r="A1932" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
     </row>
     <row r="1933">
       <c r="A1933" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
     </row>
     <row r="1934">
       <c r="A1934" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
@@ -39637,7 +39637,7 @@
     </row>
     <row r="1935">
       <c r="A1935" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
     </row>
     <row r="1936">
       <c r="A1936" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
     </row>
     <row r="1937">
       <c r="A1937" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
@@ -39694,7 +39694,7 @@
     </row>
     <row r="1938">
       <c r="A1938" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
     </row>
     <row r="1939">
       <c r="A1939" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
     </row>
     <row r="1940">
       <c r="A1940" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
@@ -39751,7 +39751,7 @@
     </row>
     <row r="1941">
       <c r="A1941" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
     </row>
     <row r="1942">
       <c r="A1942" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
     </row>
     <row r="1943">
       <c r="A1943" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
     </row>
     <row r="1944">
       <c r="A1944" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
@@ -39827,7 +39827,7 @@
     </row>
     <row r="1945">
       <c r="A1945" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
     </row>
     <row r="1946">
       <c r="A1946" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
     </row>
     <row r="1947">
       <c r="A1947" s="2" t="n">
-        <v>45705.0167971608</v>
+        <v>45705.01679716435</v>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
@@ -39877,6 +39877,2849 @@
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>1 грам абонаментно златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>182</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>202</v>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-abonamentno-zlatno-kulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>0,25 грама златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>49</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C1950" t="n">
+        <v>5637</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>5694</v>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C1951" t="n">
+        <v>5637</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>5721</v>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-vienska-filharmoniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C1952" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>628</v>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C1953" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>639</v>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%bd%d0%b0-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b8%d0%b9%d1%81%d0%ba%d0%b0-%d1%84%d0%b8%d0%bb%d1%85%d0%b0%d1%80%d0%bc%d0%be%d0%bd%d0%b8%d1%8f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Канадски кленов лист</t>
+        </is>
+      </c>
+      <c r="C1954" t="n">
+        <v>5637</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>5716</v>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-kanadski-klenov-list/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийско кенгуру</t>
+        </is>
+      </c>
+      <c r="C1955" t="n">
+        <v>5637</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>5694</v>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliysko-kenguru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1956" t="n">
+        <v>17753</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>18041</v>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1957" t="n">
+        <v>17753</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>18058</v>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>0,25 г златно кюлче Tavex, подаръчен пакет</t>
+        </is>
+      </c>
+      <c r="C1958" t="n">
+        <v>49</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>72</v>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex-podarachen-paket/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>50 x 1 грам комбинирано кюлче Valcambi Suisse CombiBar</t>
+        </is>
+      </c>
+      <c r="C1959" t="n">
+        <v>9027</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-kombinirano-zlatno-kulche-valcambi-combibar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1960" t="n">
+        <v>9027</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>9109</v>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1961" t="n">
+        <v>9027</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>9118</v>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>5621</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>5672</v>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Suisse</t>
+        </is>
+      </c>
+      <c r="C1963" t="n">
+        <v>5621</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>5674</v>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-suisse/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1964" t="n">
+        <v>5621</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>5677</v>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1965" t="n">
+        <v>3661</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>3711</v>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1966" t="n">
+        <v>3661</v>
+      </c>
+      <c r="D1966" t="inlineStr"/>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>3661</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>3718</v>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1968" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>924</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>924</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1973" t="n">
+        <v>924</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1974" t="n">
+        <v>959</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>933</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>531</v>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-5-grama-zlatno-kyulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>535</v>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/dva-grama-i-polovina-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>380</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>186</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>224</v>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>186</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C1981" t="n">
+        <v>186</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>222</v>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C1982" t="n">
+        <v>213</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>269</v>
+      </c>
+      <c r="E1982" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски орел</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>5637</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-amerikanski-orel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>20 долара двоен орел лейди Либърти</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>5294</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>6234</v>
+      </c>
+      <c r="E1984" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-dolara-dvoen-orel-lejdi-libarti/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски бизон</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>5721</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>5975</v>
+      </c>
+      <c r="E1985" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-amerikanski-bizon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Кругерранд, Южна Африка</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>5560</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>5672</v>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-krugerrand-yujna-afrika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Слон Южна Африка - Големите 5</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>5637</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>5754</v>
+      </c>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-slon-yuzhna-afrika-golemite-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C1988" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>6388</v>
+      </c>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1989" t="n">
+        <v>5803</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1990" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1991" t="n">
+        <v>581</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>716</v>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>277</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>405</v>
+      </c>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>5748</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E1993" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>2819</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>3139</v>
+      </c>
+      <c r="E1994" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>1624</v>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>581</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>705</v>
+      </c>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>277</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>405</v>
+      </c>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>Руска златна монета 5 рубли Николай II</t>
+        </is>
+      </c>
+      <c r="C1998" t="n">
+        <v>756</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>993</v>
+      </c>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-5-rubli-nikolay-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>10 рубли Николай II Русия</t>
+        </is>
+      </c>
+      <c r="C1999" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>2056</v>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-rubli-nikolai-ii-rusia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>20 френски франка Наполеон III</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-%d1%84%d1%80%d0%b0%d0%bd%d0%ba%d0%b0-%d1%84%d1%80%d0%b5%d0%bd%d1%81%d0%ba%d0%b8-%d0%bd%d0%b0%d0%bf%d0%be%d0%bb%d0%b5%d0%be%d0%bd-%d1%81-%d0%bb%d0%b0%d0%b2%d1%80%d0%be%d0%b2-%d0%b2%d0%b5%d0%bd%d0%b5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>10 франка френски Наполеон III</t>
+        </is>
+      </c>
+      <c r="C2002" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>655</v>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>10 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>655</v>
+      </c>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-zlatna-moneta-napoleon-iii-s-lavrov-venets/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>Златна монета 20 френски франка Серес</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-seres/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Гениус</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-frenski-franka-genius/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>Златна монета 20 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C2006" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>20 белгийски франка златна монета Леополд II</t>
+        </is>
+      </c>
+      <c r="C2007" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-belgiiski-franka-leopold-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>20 лири Виктор Емануил II Италия</t>
+        </is>
+      </c>
+      <c r="C2008" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/italian-20lira-emanuele/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>20 лири златна монета Умберто I, Италия</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-liri-zlatna-moneta-umberto-i-italiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>4 австрийски дуката златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>2646</v>
+      </c>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-avstriiski-dukata-franc-iosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>1 австрийски дукат златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>630</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>664</v>
+      </c>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-1-avstriiski-dukat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>8 форинта/20 франка Франц Йосиф Унгария</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-forinta-20-franka-franc-iosif-ungariia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>Златна монета 4 флорина/10 франка Франц Йосиф, Австрия</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>552</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>590</v>
+      </c>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-florina-10-franka-franc-iosif-avstria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Швейцария Вренели</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-franka-shveitsariya-vreneli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>10 гулдена Вилхелмина Холандия</t>
+        </is>
+      </c>
+      <c r="C2015" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E2015" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-guldena-vilhemina-holandiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>20 германски марки Вилхелм II</t>
+        </is>
+      </c>
+      <c r="C2016" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>1383</v>
+      </c>
+      <c r="E2016" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-germanski-marki-vilhelm-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>Златен Мемориален Суверен Чарлз III Великобритания 2022г.</t>
+        </is>
+      </c>
+      <c r="C2017" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E2017" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-memorialen-suveren-charles-iii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>Златен Суверен Чарлз III Великобритания</t>
+        </is>
+      </c>
+      <c r="C2018" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>1393</v>
+      </c>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-charles-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>Златен суверен Елизабет II 1957-2021 Великобритания</t>
+        </is>
+      </c>
+      <c r="C2019" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/suveren-elizabet-ii-velikobritaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>Златен суверен Едуард VII Великобритания</t>
+        </is>
+      </c>
+      <c r="C2020" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-eduard-vii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>Златен суверен Джордж V Великобритания</t>
+        </is>
+      </c>
+      <c r="C2021" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-jorge-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>Златен суверен Виктория Великобритания</t>
+        </is>
+      </c>
+      <c r="C2022" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-viktoriya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>Британски златен суверен Елизабет II, 2022г.</t>
+        </is>
+      </c>
+      <c r="C2023" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2023" t="inlineStr"/>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-britanski-suveren-elizabet-ii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Тунис</t>
+        </is>
+      </c>
+      <c r="C2024" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>1141</v>
+      </c>
+      <c r="E2024" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-franka-zlatna-moneta-tunis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>Златна монета 100 турски куруша</t>
+        </is>
+      </c>
+      <c r="C2025" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D2025" t="inlineStr"/>
+      <c r="E2025" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-turski-kurusha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>Златна монета 50 песос, Мексико</t>
+        </is>
+      </c>
+      <c r="C2026" t="n">
+        <v>6664</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>7071</v>
+      </c>
+      <c r="E2026" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-50-pesos-meksiko/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>Златна монета 100 австрийски корони Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2027" t="n">
+        <v>5336</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>5721</v>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-avstriyski-koroni-franc-yosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2028" t="n">
+        <v>5438</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>5762</v>
+      </c>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2029" t="n">
+        <v>2719</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>2974</v>
+      </c>
+      <c r="E2029" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2030" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>1629</v>
+      </c>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2031" t="n">
+        <v>544</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>691</v>
+      </c>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2032" t="n">
+        <v>181</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>275</v>
+      </c>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2022</t>
+        </is>
+      </c>
+      <c r="C2033" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>8260</v>
+      </c>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-tiger-2022-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2021</t>
+        </is>
+      </c>
+      <c r="C2034" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>6608</v>
+      </c>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-ox-2021-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Мишката 2020</t>
+        </is>
+      </c>
+      <c r="C2035" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-mishkata-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Кучето 2018</t>
+        </is>
+      </c>
+      <c r="C2036" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-22/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2017</t>
+        </is>
+      </c>
+      <c r="C2037" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni40s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Маймуната 2016</t>
+        </is>
+      </c>
+      <c r="C2038" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-maimunata-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Змията 2013</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>6608</v>
+      </c>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zmiyata-2013/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>1 унция австралиисйки лунар година на дракона 2012</t>
+        </is>
+      </c>
+      <c r="C2040" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-drakona-2012/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Заека 2011</t>
+        </is>
+      </c>
+      <c r="C2041" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-moneta-avstraliiski-lunar-zaek-2011/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2009</t>
+        </is>
+      </c>
+      <c r="C2042" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-vola-2009/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Мишката 2008</t>
+        </is>
+      </c>
+      <c r="C2043" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-moneta-lunar-mishka-2008/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Прасето 2007</t>
+        </is>
+      </c>
+      <c r="C2044" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-praseto-2007/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2005</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2045" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-petela-2005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Маймуната 2004</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%b5%d0%bd-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b0%d0%bb%d0%b8%d0%b9%d1%81%d0%ba%d0%b8-%d0%bb%d1%83%d0%bd%d0%b0%d1%80-%d0%b3%d0%be%d0%b4%d0%b8-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Козата 2003</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2047" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийки Лунар 2000 година на дракона</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>7434</v>
+      </c>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyki-lunar-2000-godina-drakona/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2010</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2049" t="inlineStr"/>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-tigura-2010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Кучето 2006</t>
+        </is>
+      </c>
+      <c r="C2050" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-kucheto-2006/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 1998</t>
+        </is>
+      </c>
+      <c r="C2051" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>6883</v>
+      </c>
+      <c r="E2051" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-tigara-1998/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 1997</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>6883</v>
+      </c>
+      <c r="E2052" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-vola-1997/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Мишката 1996</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2053" t="inlineStr"/>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni42s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Коня 2014</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2054" t="inlineStr"/>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-konq-2014/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2055" t="inlineStr"/>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2056" t="inlineStr"/>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2057" t="inlineStr"/>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2058" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2058" t="inlineStr"/>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2059" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2059" t="inlineStr"/>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2060" t="inlineStr"/>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2061" t="inlineStr"/>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2062" t="inlineStr"/>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Драконът на Тюдор 2024г.</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2063" t="inlineStr"/>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tudorite-drakonat-na-tudor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Еднорогът на Сиймор 2024 г.</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2064" t="inlineStr"/>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-ednorogut-na-siimor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Бикът от Кларънс 2023 г.</t>
+        </is>
+      </c>
+      <c r="C2065" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2065" t="inlineStr"/>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-bikut-ot-klaruns-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия - Елизабет II</t>
+        </is>
+      </c>
+      <c r="C2066" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2066" t="inlineStr"/>
+      <c r="E2066" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya-elizabet-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Йейлът на Бофорт 2023 г.</t>
+        </is>
+      </c>
+      <c r="C2067" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2067" t="inlineStr"/>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-zlatna-moneta-pazitelite-na-tyudorite-yeylut-na-bofort-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>1/2 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2068" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2068" t="inlineStr"/>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>1/4 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2069" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2069" t="inlineStr"/>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2070" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2070" t="inlineStr"/>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2071" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2071" t="inlineStr"/>
+      <c r="E2071" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-zaek-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>1/10 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2072" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2072" t="inlineStr"/>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2073" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2073" t="inlineStr"/>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>1/20 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2074" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2074" t="inlineStr"/>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2075" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2075" t="inlineStr"/>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2076" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2076" t="inlineStr"/>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2077" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2077" t="inlineStr"/>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2078" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2078" t="inlineStr"/>
+      <c r="E2078" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2079" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2079" t="inlineStr"/>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2080" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2080" t="inlineStr"/>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2081" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2081" t="inlineStr"/>
+      <c r="E2081" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>10 крони Кристиян X Дания</t>
+        </is>
+      </c>
+      <c r="C2082" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2082" t="inlineStr"/>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-kroni-kristiyan-x-daniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>10 Гулдена Вилхелм III Холандия</t>
+        </is>
+      </c>
+      <c r="C2083" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2083" t="inlineStr"/>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2022</t>
+        </is>
+      </c>
+      <c r="C2084" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2084" t="inlineStr"/>
+      <c r="E2084" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>Златна монета 10 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C2085" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2085" t="inlineStr"/>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="2" t="n">
+        <v>45706.87078163875</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>1 килограм златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2086" t="n">
+        <v>5693</v>
+      </c>
+      <c r="D2086" t="inlineStr"/>
+      <c r="E2086" t="inlineStr">
         <is>
           <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
         </is>

--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2086"/>
+  <dimension ref="A1:E2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39884,7 +39884,7 @@
     </row>
     <row r="1948">
       <c r="A1948" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
     </row>
     <row r="1949">
       <c r="A1949" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
     </row>
     <row r="1950">
       <c r="A1950" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
@@ -39947,7 +39947,7 @@
     </row>
     <row r="1951">
       <c r="A1951" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
     </row>
     <row r="1952">
       <c r="A1952" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
     </row>
     <row r="1953">
       <c r="A1953" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
     </row>
     <row r="1954">
       <c r="A1954" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
     </row>
     <row r="1955">
       <c r="A1955" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
     </row>
     <row r="1956">
       <c r="A1956" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
     </row>
     <row r="1957">
       <c r="A1957" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
     </row>
     <row r="1958">
       <c r="A1958" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
     </row>
     <row r="1959">
       <c r="A1959" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
     </row>
     <row r="1960">
       <c r="A1960" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
     </row>
     <row r="1961">
       <c r="A1961" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
     </row>
     <row r="1962">
       <c r="A1962" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
     </row>
     <row r="1963">
       <c r="A1963" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
     </row>
     <row r="1964">
       <c r="A1964" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
@@ -40241,7 +40241,7 @@
     </row>
     <row r="1965">
       <c r="A1965" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
     </row>
     <row r="1966">
       <c r="A1966" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
     </row>
     <row r="1967">
       <c r="A1967" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
     </row>
     <row r="1968">
       <c r="A1968" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
     </row>
     <row r="1969">
       <c r="A1969" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
     </row>
     <row r="1970">
       <c r="A1970" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
@@ -40365,7 +40365,7 @@
     </row>
     <row r="1971">
       <c r="A1971" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
     </row>
     <row r="1972">
       <c r="A1972" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
@@ -40407,7 +40407,7 @@
     </row>
     <row r="1973">
       <c r="A1973" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
     </row>
     <row r="1974">
       <c r="A1974" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
     </row>
     <row r="1975">
       <c r="A1975" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
     </row>
     <row r="1976">
       <c r="A1976" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
     </row>
     <row r="1977">
       <c r="A1977" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
     </row>
     <row r="1978">
       <c r="A1978" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
     </row>
     <row r="1979">
       <c r="A1979" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
@@ -40554,7 +40554,7 @@
     </row>
     <row r="1980">
       <c r="A1980" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
     </row>
     <row r="1981">
       <c r="A1981" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
     </row>
     <row r="1982">
       <c r="A1982" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
     </row>
     <row r="1983">
       <c r="A1983" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
     </row>
     <row r="1984">
       <c r="A1984" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
@@ -40659,7 +40659,7 @@
     </row>
     <row r="1985">
       <c r="A1985" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
     </row>
     <row r="1986">
       <c r="A1986" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
     </row>
     <row r="1987">
       <c r="A1987" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
     </row>
     <row r="1988">
       <c r="A1988" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
     </row>
     <row r="1989">
       <c r="A1989" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
@@ -40764,7 +40764,7 @@
     </row>
     <row r="1990">
       <c r="A1990" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
     </row>
     <row r="1991">
       <c r="A1991" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
     </row>
     <row r="1992">
       <c r="A1992" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
     </row>
     <row r="1993">
       <c r="A1993" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
     </row>
     <row r="1994">
       <c r="A1994" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
     </row>
     <row r="1995">
       <c r="A1995" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
@@ -40890,7 +40890,7 @@
     </row>
     <row r="1996">
       <c r="A1996" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
@@ -40911,7 +40911,7 @@
     </row>
     <row r="1997">
       <c r="A1997" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
     </row>
     <row r="1998">
       <c r="A1998" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
     </row>
     <row r="1999">
       <c r="A1999" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
     </row>
     <row r="2000">
       <c r="A2000" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
     </row>
     <row r="2001">
       <c r="A2001" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
@@ -41016,7 +41016,7 @@
     </row>
     <row r="2002">
       <c r="A2002" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
     </row>
     <row r="2003">
       <c r="A2003" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
     </row>
     <row r="2004">
       <c r="A2004" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
@@ -41079,7 +41079,7 @@
     </row>
     <row r="2005">
       <c r="A2005" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
     </row>
     <row r="2006">
       <c r="A2006" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
@@ -41121,7 +41121,7 @@
     </row>
     <row r="2007">
       <c r="A2007" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
     </row>
     <row r="2008">
       <c r="A2008" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
@@ -41163,7 +41163,7 @@
     </row>
     <row r="2009">
       <c r="A2009" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
     </row>
     <row r="2010">
       <c r="A2010" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
     </row>
     <row r="2011">
       <c r="A2011" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
@@ -41226,7 +41226,7 @@
     </row>
     <row r="2012">
       <c r="A2012" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
@@ -41247,7 +41247,7 @@
     </row>
     <row r="2013">
       <c r="A2013" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
     </row>
     <row r="2014">
       <c r="A2014" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
     </row>
     <row r="2015">
       <c r="A2015" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
@@ -41310,7 +41310,7 @@
     </row>
     <row r="2016">
       <c r="A2016" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
@@ -41331,7 +41331,7 @@
     </row>
     <row r="2017">
       <c r="A2017" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
     </row>
     <row r="2018">
       <c r="A2018" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
     </row>
     <row r="2019">
       <c r="A2019" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
     </row>
     <row r="2020">
       <c r="A2020" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
     </row>
     <row r="2021">
       <c r="A2021" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
     </row>
     <row r="2022">
       <c r="A2022" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
     </row>
     <row r="2023">
       <c r="A2023" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
     </row>
     <row r="2024">
       <c r="A2024" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
@@ -41497,7 +41497,7 @@
     </row>
     <row r="2025">
       <c r="A2025" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
     </row>
     <row r="2026">
       <c r="A2026" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
@@ -41537,7 +41537,7 @@
     </row>
     <row r="2027">
       <c r="A2027" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
@@ -41558,7 +41558,7 @@
     </row>
     <row r="2028">
       <c r="A2028" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
@@ -41579,7 +41579,7 @@
     </row>
     <row r="2029">
       <c r="A2029" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
@@ -41600,7 +41600,7 @@
     </row>
     <row r="2030">
       <c r="A2030" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
@@ -41621,7 +41621,7 @@
     </row>
     <row r="2031">
       <c r="A2031" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
@@ -41642,7 +41642,7 @@
     </row>
     <row r="2032">
       <c r="A2032" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
     </row>
     <row r="2033">
       <c r="A2033" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
     </row>
     <row r="2034">
       <c r="A2034" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
     </row>
     <row r="2035">
       <c r="A2035" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
@@ -41726,7 +41726,7 @@
     </row>
     <row r="2036">
       <c r="A2036" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
     </row>
     <row r="2037">
       <c r="A2037" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
     </row>
     <row r="2038">
       <c r="A2038" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
     </row>
     <row r="2039">
       <c r="A2039" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
     </row>
     <row r="2040">
       <c r="A2040" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
@@ -41831,7 +41831,7 @@
     </row>
     <row r="2041">
       <c r="A2041" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
@@ -41852,7 +41852,7 @@
     </row>
     <row r="2042">
       <c r="A2042" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
     </row>
     <row r="2043">
       <c r="A2043" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
     </row>
     <row r="2044">
       <c r="A2044" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
     </row>
     <row r="2045">
       <c r="A2045" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
@@ -41936,7 +41936,7 @@
     </row>
     <row r="2046">
       <c r="A2046" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2046" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
     </row>
     <row r="2047">
       <c r="A2047" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2047" t="inlineStr">
         <is>
@@ -41978,7 +41978,7 @@
     </row>
     <row r="2048">
       <c r="A2048" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2048" t="inlineStr">
         <is>
@@ -41999,7 +41999,7 @@
     </row>
     <row r="2049">
       <c r="A2049" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2049" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
     </row>
     <row r="2050">
       <c r="A2050" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
     </row>
     <row r="2051">
       <c r="A2051" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
     </row>
     <row r="2052">
       <c r="A2052" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
@@ -42081,7 +42081,7 @@
     </row>
     <row r="2053">
       <c r="A2053" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
     </row>
     <row r="2054">
       <c r="A2054" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
@@ -42119,7 +42119,7 @@
     </row>
     <row r="2055">
       <c r="A2055" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
@@ -42138,7 +42138,7 @@
     </row>
     <row r="2056">
       <c r="A2056" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
     </row>
     <row r="2057">
       <c r="A2057" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
     </row>
     <row r="2058">
       <c r="A2058" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
     </row>
     <row r="2059">
       <c r="A2059" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
     </row>
     <row r="2060">
       <c r="A2060" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
@@ -42233,7 +42233,7 @@
     </row>
     <row r="2061">
       <c r="A2061" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
@@ -42252,7 +42252,7 @@
     </row>
     <row r="2062">
       <c r="A2062" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
     </row>
     <row r="2063">
       <c r="A2063" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
     </row>
     <row r="2064">
       <c r="A2064" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
     </row>
     <row r="2065">
       <c r="A2065" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
     </row>
     <row r="2066">
       <c r="A2066" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
     </row>
     <row r="2067">
       <c r="A2067" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
@@ -42366,7 +42366,7 @@
     </row>
     <row r="2068">
       <c r="A2068" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
     </row>
     <row r="2069">
       <c r="A2069" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
     </row>
     <row r="2070">
       <c r="A2070" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
     </row>
     <row r="2071">
       <c r="A2071" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
     </row>
     <row r="2072">
       <c r="A2072" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
     </row>
     <row r="2073">
       <c r="A2073" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
     </row>
     <row r="2074">
       <c r="A2074" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
     </row>
     <row r="2075">
       <c r="A2075" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
     </row>
     <row r="2076">
       <c r="A2076" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
@@ -42537,7 +42537,7 @@
     </row>
     <row r="2077">
       <c r="A2077" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
     </row>
     <row r="2078">
       <c r="A2078" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
     </row>
     <row r="2079">
       <c r="A2079" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
@@ -42594,7 +42594,7 @@
     </row>
     <row r="2080">
       <c r="A2080" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
     </row>
     <row r="2081">
       <c r="A2081" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
     </row>
     <row r="2082">
       <c r="A2082" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
@@ -42651,7 +42651,7 @@
     </row>
     <row r="2083">
       <c r="A2083" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
     </row>
     <row r="2084">
       <c r="A2084" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2084" t="inlineStr">
         <is>
@@ -42689,7 +42689,7 @@
     </row>
     <row r="2085">
       <c r="A2085" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2085" t="inlineStr">
         <is>
@@ -42708,7 +42708,7 @@
     </row>
     <row r="2086">
       <c r="A2086" s="2" t="n">
-        <v>45706.87078163875</v>
+        <v>45706.87078164352</v>
       </c>
       <c r="B2086" t="inlineStr">
         <is>
@@ -42720,6 +42720,2847 @@
       </c>
       <c r="D2086" t="inlineStr"/>
       <c r="E2086" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>1 грам абонаментно златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C2087" t="n">
+        <v>183</v>
+      </c>
+      <c r="D2087" t="n">
+        <v>203</v>
+      </c>
+      <c r="E2087" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-abonamentno-zlatno-kulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>0,25 грама златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C2088" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2088" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2088" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C2089" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D2089" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C2090" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D2090" t="n">
+        <v>5723</v>
+      </c>
+      <c r="E2090" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-vienska-filharmoniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C2091" t="n">
+        <v>583</v>
+      </c>
+      <c r="D2091" t="n">
+        <v>628</v>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C2092" t="n">
+        <v>583</v>
+      </c>
+      <c r="D2092" t="n">
+        <v>639</v>
+      </c>
+      <c r="E2092" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%bd%d0%b0-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b8%d0%b9%d1%81%d0%ba%d0%b0-%d1%84%d0%b8%d0%bb%d1%85%d0%b0%d1%80%d0%bc%d0%be%d0%bd%d0%b8%d1%8f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Канадски кленов лист</t>
+        </is>
+      </c>
+      <c r="C2093" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D2093" t="n">
+        <v>5717</v>
+      </c>
+      <c r="E2093" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-kanadski-klenov-list/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийско кенгуру</t>
+        </is>
+      </c>
+      <c r="C2094" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D2094" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliysko-kenguru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2095" t="n">
+        <v>17758</v>
+      </c>
+      <c r="D2095" t="n">
+        <v>18046</v>
+      </c>
+      <c r="E2095" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2096" t="n">
+        <v>17758</v>
+      </c>
+      <c r="D2096" t="n">
+        <v>18064</v>
+      </c>
+      <c r="E2096" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>0,25 г златно кюлче Tavex, подаръчен пакет</t>
+        </is>
+      </c>
+      <c r="C2097" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2097" t="n">
+        <v>72</v>
+      </c>
+      <c r="E2097" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex-podarachen-paket/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>50 x 1 грам комбинирано кюлче Valcambi Suisse CombiBar</t>
+        </is>
+      </c>
+      <c r="C2098" t="n">
+        <v>9030</v>
+      </c>
+      <c r="D2098" t="n">
+        <v>9348</v>
+      </c>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-kombinirano-zlatno-kulche-valcambi-combibar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2099" t="n">
+        <v>9030</v>
+      </c>
+      <c r="D2099" t="n">
+        <v>9112</v>
+      </c>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2100" t="n">
+        <v>9030</v>
+      </c>
+      <c r="D2100" t="n">
+        <v>9121</v>
+      </c>
+      <c r="E2100" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2101" t="n">
+        <v>5623</v>
+      </c>
+      <c r="D2101" t="n">
+        <v>5673</v>
+      </c>
+      <c r="E2101" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Suisse</t>
+        </is>
+      </c>
+      <c r="C2102" t="n">
+        <v>5623</v>
+      </c>
+      <c r="D2102" t="n">
+        <v>5676</v>
+      </c>
+      <c r="E2102" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-suisse/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2103" t="n">
+        <v>5623</v>
+      </c>
+      <c r="D2103" t="n">
+        <v>5679</v>
+      </c>
+      <c r="E2103" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2104" t="n">
+        <v>3662</v>
+      </c>
+      <c r="D2104" t="n">
+        <v>3712</v>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2105" t="n">
+        <v>3662</v>
+      </c>
+      <c r="D2105" t="inlineStr"/>
+      <c r="E2105" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2106" t="n">
+        <v>3662</v>
+      </c>
+      <c r="D2106" t="n">
+        <v>3719</v>
+      </c>
+      <c r="E2106" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2107" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D2107" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E2107" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2108" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D2108" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E2108" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2109" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D2109" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E2109" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2110" t="n">
+        <v>924</v>
+      </c>
+      <c r="D2110" t="n">
+        <v>999</v>
+      </c>
+      <c r="E2110" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2111" t="n">
+        <v>924</v>
+      </c>
+      <c r="D2111" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E2111" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2112" t="n">
+        <v>924</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E2112" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2113" t="n">
+        <v>960</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E2113" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C2114" t="n">
+        <v>933</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E2114" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2115" t="n">
+        <v>475</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>531</v>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-5-grama-zlatno-kyulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2116" t="n">
+        <v>475</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>535</v>
+      </c>
+      <c r="E2116" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/dva-grama-i-polovina-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2117" t="n">
+        <v>380</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>425</v>
+      </c>
+      <c r="E2117" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2118" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>224</v>
+      </c>
+      <c r="E2118" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2119" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>225</v>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2120" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>222</v>
+      </c>
+      <c r="E2120" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C2121" t="n">
+        <v>213</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>270</v>
+      </c>
+      <c r="E2121" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски орел</t>
+        </is>
+      </c>
+      <c r="C2122" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>5867</v>
+      </c>
+      <c r="E2122" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-amerikanski-orel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>20 долара двоен орел лейди Либърти</t>
+        </is>
+      </c>
+      <c r="C2123" t="n">
+        <v>5296</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>6236</v>
+      </c>
+      <c r="E2123" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-dolara-dvoen-orel-lejdi-libarti/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски бизон</t>
+        </is>
+      </c>
+      <c r="C2124" t="n">
+        <v>5722</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>5977</v>
+      </c>
+      <c r="E2124" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-amerikanski-bizon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Кругерранд, Южна Африка</t>
+        </is>
+      </c>
+      <c r="C2125" t="n">
+        <v>5562</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>5673</v>
+      </c>
+      <c r="E2125" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-krugerrand-yujna-afrika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Слон Южна Африка - Големите 5</t>
+        </is>
+      </c>
+      <c r="C2126" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>5756</v>
+      </c>
+      <c r="E2126" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-slon-yuzhna-afrika-golemite-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2127" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>6390</v>
+      </c>
+      <c r="E2127" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2128" t="n">
+        <v>5805</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>6092</v>
+      </c>
+      <c r="E2128" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2129" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2130" t="n">
+        <v>581</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>716</v>
+      </c>
+      <c r="E2130" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2131" t="n">
+        <v>277</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>405</v>
+      </c>
+      <c r="E2131" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2132" t="n">
+        <v>5750</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>5867</v>
+      </c>
+      <c r="E2132" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2133" t="n">
+        <v>2820</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>3140</v>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2134" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E2134" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2135" t="n">
+        <v>581</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>705</v>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2136" t="n">
+        <v>277</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>405</v>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Руска златна монета 5 рубли Николай II</t>
+        </is>
+      </c>
+      <c r="C2137" t="n">
+        <v>757</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>993</v>
+      </c>
+      <c r="E2137" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-5-rubli-nikolay-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>10 рубли Николай II Русия</t>
+        </is>
+      </c>
+      <c r="C2138" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>2057</v>
+      </c>
+      <c r="E2138" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-rubli-nikolai-ii-rusia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>20 френски франка Наполеон III</t>
+        </is>
+      </c>
+      <c r="C2139" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2139" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C2140" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2140" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-%d1%84%d1%80%d0%b0%d0%bd%d0%ba%d0%b0-%d1%84%d1%80%d0%b5%d0%bd%d1%81%d0%ba%d0%b8-%d0%bd%d0%b0%d0%bf%d0%be%d0%bb%d0%b5%d0%be%d0%bd-%d1%81-%d0%bb%d0%b0%d0%b2%d1%80%d0%be%d0%b2-%d0%b2%d0%b5%d0%bd%d0%b5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>10 франка френски Наполеон III</t>
+        </is>
+      </c>
+      <c r="C2141" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>656</v>
+      </c>
+      <c r="E2141" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>10 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C2142" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2142" t="inlineStr"/>
+      <c r="E2142" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-zlatna-moneta-napoleon-iii-s-lavrov-venets/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Златна монета 20 френски франка Серес</t>
+        </is>
+      </c>
+      <c r="C2143" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-seres/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Гениус</t>
+        </is>
+      </c>
+      <c r="C2144" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2144" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-frenski-franka-genius/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>Златна монета 20 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C2145" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2145" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>20 белгийски франка златна монета Леополд II</t>
+        </is>
+      </c>
+      <c r="C2146" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E2146" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-belgiiski-franka-leopold-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>20 лири Виктор Емануил II Италия</t>
+        </is>
+      </c>
+      <c r="C2147" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1101</v>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/italian-20lira-emanuele/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>20 лири златна монета Умберто I, Италия</t>
+        </is>
+      </c>
+      <c r="C2148" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-liri-zlatna-moneta-umberto-i-italiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>4 австрийски дуката златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2149" t="n">
+        <v>2448</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2646</v>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-avstriiski-dukata-franc-iosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>1 австрийски дукат златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2150" t="n">
+        <v>630</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>664</v>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-1-avstriiski-dukat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>8 форинта/20 франка Франц Йосиф Унгария</t>
+        </is>
+      </c>
+      <c r="C2151" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-forinta-20-franka-franc-iosif-ungariia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>Златна монета 4 флорина/10 франка Франц Йосиф, Австрия</t>
+        </is>
+      </c>
+      <c r="C2152" t="n">
+        <v>552</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>591</v>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-florina-10-franka-franc-iosif-avstria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Швейцария Вренели</t>
+        </is>
+      </c>
+      <c r="C2153" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-franka-shveitsariya-vreneli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>10 гулдена Вилхелмина Холандия</t>
+        </is>
+      </c>
+      <c r="C2154" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1164</v>
+      </c>
+      <c r="E2154" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-guldena-vilhemina-holandiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>20 германски марки Вилхелм II</t>
+        </is>
+      </c>
+      <c r="C2155" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>1383</v>
+      </c>
+      <c r="E2155" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-germanski-marki-vilhelm-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>Златен Мемориален Суверен Чарлз III Великобритания 2022г.</t>
+        </is>
+      </c>
+      <c r="C2156" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-memorialen-suveren-charles-iii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>Златен Суверен Чарлз III Великобритания</t>
+        </is>
+      </c>
+      <c r="C2157" t="n">
+        <v>1335</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1394</v>
+      </c>
+      <c r="E2157" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-charles-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>Златен суверен Елизабет II 1957-2021 Великобритания</t>
+        </is>
+      </c>
+      <c r="C2158" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>1351</v>
+      </c>
+      <c r="E2158" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/suveren-elizabet-ii-velikobritaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>Златен суверен Едуард VII Великобритания</t>
+        </is>
+      </c>
+      <c r="C2159" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-eduard-vii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>Златен суверен Джордж V Великобритания</t>
+        </is>
+      </c>
+      <c r="C2160" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E2160" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-jorge-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>Златен суверен Виктория Великобритания</t>
+        </is>
+      </c>
+      <c r="C2161" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E2161" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-viktoriya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>Британски златен суверен Елизабет II, 2022г.</t>
+        </is>
+      </c>
+      <c r="C2162" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D2162" t="inlineStr"/>
+      <c r="E2162" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-britanski-suveren-elizabet-ii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Тунис</t>
+        </is>
+      </c>
+      <c r="C2163" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>1142</v>
+      </c>
+      <c r="E2163" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-franka-zlatna-moneta-tunis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>Златна монета 100 турски куруша</t>
+        </is>
+      </c>
+      <c r="C2164" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D2164" t="inlineStr"/>
+      <c r="E2164" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-turski-kurusha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>Златна монета 50 песос, Мексико</t>
+        </is>
+      </c>
+      <c r="C2165" t="n">
+        <v>6666</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>7073</v>
+      </c>
+      <c r="E2165" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-50-pesos-meksiko/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>Златна монета 100 австрийски корони Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2166" t="n">
+        <v>5338</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>5723</v>
+      </c>
+      <c r="E2166" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-avstriyski-koroni-franc-yosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2167" t="n">
+        <v>5439</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>5764</v>
+      </c>
+      <c r="E2167" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2168" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>2975</v>
+      </c>
+      <c r="E2168" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2169" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>1629</v>
+      </c>
+      <c r="E2169" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2170" t="n">
+        <v>544</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>691</v>
+      </c>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2171" t="n">
+        <v>181</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>275</v>
+      </c>
+      <c r="E2171" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2022</t>
+        </is>
+      </c>
+      <c r="C2172" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>8263</v>
+      </c>
+      <c r="E2172" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-tiger-2022-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2021</t>
+        </is>
+      </c>
+      <c r="C2173" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>6609</v>
+      </c>
+      <c r="E2173" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-ox-2021-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Мишката 2020</t>
+        </is>
+      </c>
+      <c r="C2174" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2174" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-mishkata-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Кучето 2018</t>
+        </is>
+      </c>
+      <c r="C2175" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-22/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2017</t>
+        </is>
+      </c>
+      <c r="C2176" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2176" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni40s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Маймуната 2016</t>
+        </is>
+      </c>
+      <c r="C2177" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2177" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-maimunata-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Змията 2013</t>
+        </is>
+      </c>
+      <c r="C2178" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>6609</v>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zmiyata-2013/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>1 унция австралиисйки лунар година на дракона 2012</t>
+        </is>
+      </c>
+      <c r="C2179" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-drakona-2012/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Заека 2011</t>
+        </is>
+      </c>
+      <c r="C2180" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2180" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-moneta-avstraliiski-lunar-zaek-2011/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2009</t>
+        </is>
+      </c>
+      <c r="C2181" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-vola-2009/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Мишката 2008</t>
+        </is>
+      </c>
+      <c r="C2182" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2182" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-moneta-lunar-mishka-2008/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Прасето 2007</t>
+        </is>
+      </c>
+      <c r="C2183" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-praseto-2007/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2005</t>
+        </is>
+      </c>
+      <c r="C2184" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2184" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-petela-2005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Маймуната 2004</t>
+        </is>
+      </c>
+      <c r="C2185" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2185" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%b5%d0%bd-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b0%d0%bb%d0%b8%d0%b9%d1%81%d0%ba%d0%b8-%d0%bb%d1%83%d0%bd%d0%b0%d1%80-%d0%b3%d0%be%d0%b4%d0%b8-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Козата 2003</t>
+        </is>
+      </c>
+      <c r="C2186" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2186" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийки Лунар 2000 година на дракона</t>
+        </is>
+      </c>
+      <c r="C2187" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>7437</v>
+      </c>
+      <c r="E2187" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyki-lunar-2000-godina-drakona/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2010</t>
+        </is>
+      </c>
+      <c r="C2188" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2188" t="inlineStr"/>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-tigura-2010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Кучето 2006</t>
+        </is>
+      </c>
+      <c r="C2189" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E2189" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-kucheto-2006/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 1998</t>
+        </is>
+      </c>
+      <c r="C2190" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>6885</v>
+      </c>
+      <c r="E2190" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-tigara-1998/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 1997</t>
+        </is>
+      </c>
+      <c r="C2191" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>6885</v>
+      </c>
+      <c r="E2191" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-vola-1997/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Мишката 1996</t>
+        </is>
+      </c>
+      <c r="C2192" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2192" t="inlineStr"/>
+      <c r="E2192" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni42s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Коня 2014</t>
+        </is>
+      </c>
+      <c r="C2193" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2193" t="inlineStr"/>
+      <c r="E2193" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-konq-2014/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C2194" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2194" t="inlineStr"/>
+      <c r="E2194" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C2195" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2195" t="inlineStr"/>
+      <c r="E2195" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2196" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2196" t="inlineStr"/>
+      <c r="E2196" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2197" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2197" t="inlineStr"/>
+      <c r="E2197" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2198" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2198" t="inlineStr"/>
+      <c r="E2198" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2199" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2199" t="inlineStr"/>
+      <c r="E2199" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2200" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2200" t="inlineStr"/>
+      <c r="E2200" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2201" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2201" t="inlineStr"/>
+      <c r="E2201" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Драконът на Тюдор 2024г.</t>
+        </is>
+      </c>
+      <c r="C2202" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2202" t="inlineStr"/>
+      <c r="E2202" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tudorite-drakonat-na-tudor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Еднорогът на Сиймор 2024 г.</t>
+        </is>
+      </c>
+      <c r="C2203" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2203" t="inlineStr"/>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-ednorogut-na-siimor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Бикът от Кларънс 2023 г.</t>
+        </is>
+      </c>
+      <c r="C2204" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2204" t="inlineStr"/>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-bikut-ot-klaruns-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия - Елизабет II</t>
+        </is>
+      </c>
+      <c r="C2205" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2205" t="inlineStr"/>
+      <c r="E2205" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya-elizabet-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Йейлът на Бофорт 2023 г.</t>
+        </is>
+      </c>
+      <c r="C2206" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2206" t="inlineStr"/>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-zlatna-moneta-pazitelite-na-tyudorite-yeylut-na-bofort-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>1/2 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2207" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2207" t="inlineStr"/>
+      <c r="E2207" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>1/4 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2208" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2208" t="inlineStr"/>
+      <c r="E2208" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2209" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2209" t="inlineStr"/>
+      <c r="E2209" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2210" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2210" t="inlineStr"/>
+      <c r="E2210" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-zaek-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>1/10 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2211" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2211" t="inlineStr"/>
+      <c r="E2211" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2212" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2212" t="inlineStr"/>
+      <c r="E2212" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>1/20 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2213" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2213" t="inlineStr"/>
+      <c r="E2213" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2214" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2214" t="inlineStr"/>
+      <c r="E2214" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2215" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2215" t="inlineStr"/>
+      <c r="E2215" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2216" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2216" t="inlineStr"/>
+      <c r="E2216" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2217" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2217" t="inlineStr"/>
+      <c r="E2217" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2218" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2218" t="inlineStr"/>
+      <c r="E2218" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2219" t="inlineStr"/>
+      <c r="E2219" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2220" t="inlineStr"/>
+      <c r="E2220" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>10 крони Кристиян X Дания</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2221" t="inlineStr"/>
+      <c r="E2221" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-kroni-kristiyan-x-daniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>10 Гулдена Вилхелм III Холандия</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2222" t="inlineStr"/>
+      <c r="E2222" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2022</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2223" t="inlineStr"/>
+      <c r="E2223" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>Златна монета 10 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2224" t="inlineStr"/>
+      <c r="E2224" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>45707.898585527</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>1 килограм златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>5695</v>
+      </c>
+      <c r="D2225" t="inlineStr"/>
+      <c r="E2225" t="inlineStr">
         <is>
           <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
         </is>

--- a/price_history_gold.xlsx
+++ b/price_history_gold.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2225"/>
+  <dimension ref="A1:E2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42727,7 +42727,7 @@
     </row>
     <row r="2087">
       <c r="A2087" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
     </row>
     <row r="2088">
       <c r="A2088" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2088" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
     </row>
     <row r="2089">
       <c r="A2089" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2089" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
     </row>
     <row r="2090">
       <c r="A2090" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2090" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
     </row>
     <row r="2091">
       <c r="A2091" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2091" t="inlineStr">
         <is>
@@ -42832,7 +42832,7 @@
     </row>
     <row r="2092">
       <c r="A2092" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2092" t="inlineStr">
         <is>
@@ -42853,7 +42853,7 @@
     </row>
     <row r="2093">
       <c r="A2093" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2093" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
     </row>
     <row r="2094">
       <c r="A2094" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2094" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
     </row>
     <row r="2095">
       <c r="A2095" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2095" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
     </row>
     <row r="2096">
       <c r="A2096" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2096" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
     </row>
     <row r="2097">
       <c r="A2097" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2097" t="inlineStr">
         <is>
@@ -42958,7 +42958,7 @@
     </row>
     <row r="2098">
       <c r="A2098" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2098" t="inlineStr">
         <is>
@@ -42979,7 +42979,7 @@
     </row>
     <row r="2099">
       <c r="A2099" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2099" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
     </row>
     <row r="2100">
       <c r="A2100" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2100" t="inlineStr">
         <is>
@@ -43021,7 +43021,7 @@
     </row>
     <row r="2101">
       <c r="A2101" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2101" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
     </row>
     <row r="2102">
       <c r="A2102" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2102" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
     </row>
     <row r="2103">
       <c r="A2103" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2103" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
     </row>
     <row r="2104">
       <c r="A2104" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2104" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
     </row>
     <row r="2105">
       <c r="A2105" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2105" t="inlineStr">
         <is>
@@ -43124,7 +43124,7 @@
     </row>
     <row r="2106">
       <c r="A2106" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2106" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
     </row>
     <row r="2107">
       <c r="A2107" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2107" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
     </row>
     <row r="2108">
       <c r="A2108" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2108" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
     </row>
     <row r="2109">
       <c r="A2109" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2109" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
     </row>
     <row r="2110">
       <c r="A2110" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2110" t="inlineStr">
         <is>
@@ -43229,7 +43229,7 @@
     </row>
     <row r="2111">
       <c r="A2111" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2111" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
     </row>
     <row r="2112">
       <c r="A2112" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2112" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
     </row>
     <row r="2113">
       <c r="A2113" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2113" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
     </row>
     <row r="2114">
       <c r="A2114" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2114" t="inlineStr">
         <is>
@@ -43313,7 +43313,7 @@
     </row>
     <row r="2115">
       <c r="A2115" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2115" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
     </row>
     <row r="2116">
       <c r="A2116" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2116" t="inlineStr">
         <is>
@@ -43355,7 +43355,7 @@
     </row>
     <row r="2117">
       <c r="A2117" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2117" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
     </row>
     <row r="2118">
       <c r="A2118" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2118" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
     </row>
     <row r="2119">
       <c r="A2119" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2119" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
     </row>
     <row r="2120">
       <c r="A2120" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2120" t="inlineStr">
         <is>
@@ -43439,7 +43439,7 @@
     </row>
     <row r="2121">
       <c r="A2121" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2121" t="inlineStr">
         <is>
@@ -43460,7 +43460,7 @@
     </row>
     <row r="2122">
       <c r="A2122" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2122" t="inlineStr">
         <is>
@@ -43481,7 +43481,7 @@
     </row>
     <row r="2123">
       <c r="A2123" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2123" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
     </row>
     <row r="2124">
       <c r="A2124" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
     </row>
     <row r="2125">
       <c r="A2125" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
@@ -43544,7 +43544,7 @@
     </row>
     <row r="2126">
       <c r="A2126" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
     </row>
     <row r="2127">
       <c r="A2127" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
     </row>
     <row r="2128">
       <c r="A2128" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2128" t="inlineStr">
         <is>
@@ -43607,7 +43607,7 @@
     </row>
     <row r="2129">
       <c r="A2129" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
     </row>
     <row r="2130">
       <c r="A2130" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
     </row>
     <row r="2131">
       <c r="A2131" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
@@ -43670,7 +43670,7 @@
     </row>
     <row r="2132">
       <c r="A2132" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
     </row>
     <row r="2133">
       <c r="A2133" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
     </row>
     <row r="2134">
       <c r="A2134" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
     </row>
     <row r="2135">
       <c r="A2135" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
     </row>
     <row r="2136">
       <c r="A2136" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
@@ -43775,7 +43775,7 @@
     </row>
     <row r="2137">
       <c r="A2137" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
     </row>
     <row r="2138">
       <c r="A2138" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
     </row>
     <row r="2139">
       <c r="A2139" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
     </row>
     <row r="2140">
       <c r="A2140" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
     </row>
     <row r="2141">
       <c r="A2141" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
     </row>
     <row r="2142">
       <c r="A2142" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
@@ -43962,7 +43962,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
@@ -43983,7 +43983,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
     </row>
     <row r="2149">
       <c r="A2149" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
     </row>
     <row r="2150">
       <c r="A2150" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
@@ -44088,7 +44088,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2155" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
@@ -44193,7 +44193,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2157" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2158" t="inlineStr">
         <is>
@@ -44235,7 +44235,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2159" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2160" t="inlineStr">
         <is>
@@ -44277,7 +44277,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
@@ -44399,7 +44399,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
@@ -44441,7 +44441,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
@@ -44483,7 +44483,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
@@ -44525,7 +44525,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2173" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
@@ -44588,7 +44588,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
@@ -44630,7 +44630,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
@@ -44651,7 +44651,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2179" t="inlineStr">
         <is>
@@ -44672,7 +44672,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
@@ -44693,7 +44693,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
@@ -44714,7 +44714,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
@@ -44735,7 +44735,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
     </row>
     <row r="2189">
       <c r="A2189" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2189" t="inlineStr">
         <is>
@@ -44880,7 +44880,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2190" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2191" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
     </row>
     <row r="2192">
       <c r="A2192" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2192" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2193" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
     </row>
     <row r="2194">
       <c r="A2194" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2194" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2195" t="inlineStr">
         <is>
@@ -44998,7 +44998,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2196" t="inlineStr">
         <is>
@@ -45017,7 +45017,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2197" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2198" t="inlineStr">
         <is>
@@ -45055,7 +45055,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
@@ -45074,7 +45074,7 @@
     </row>
     <row r="2200">
       <c r="A2200" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
     </row>
     <row r="2201">
       <c r="A2201" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
@@ -45112,7 +45112,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
@@ -45169,7 +45169,7 @@
     </row>
     <row r="2205">
       <c r="A2205" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
     </row>
     <row r="2206">
       <c r="A2206" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
     </row>
     <row r="2207">
       <c r="A2207" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
@@ -45226,7 +45226,7 @@
     </row>
     <row r="2208">
       <c r="A2208" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
@@ -45245,7 +45245,7 @@
     </row>
     <row r="2209">
       <c r="A2209" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
     </row>
     <row r="2210">
       <c r="A2210" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
@@ -45283,7 +45283,7 @@
     </row>
     <row r="2211">
       <c r="A2211" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2211" t="inlineStr">
         <is>
@@ -45302,7 +45302,7 @@
     </row>
     <row r="2212">
       <c r="A2212" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
     </row>
     <row r="2213">
       <c r="A2213" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
@@ -45340,7 +45340,7 @@
     </row>
     <row r="2214">
       <c r="A2214" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
@@ -45359,7 +45359,7 @@
     </row>
     <row r="2215">
       <c r="A2215" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
     </row>
     <row r="2216">
       <c r="A2216" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
     </row>
     <row r="2217">
       <c r="A2217" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
@@ -45416,7 +45416,7 @@
     </row>
     <row r="2218">
       <c r="A2218" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
     </row>
     <row r="2219">
       <c r="A2219" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
     </row>
     <row r="2220">
       <c r="A2220" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
@@ -45473,7 +45473,7 @@
     </row>
     <row r="2221">
       <c r="A2221" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
     </row>
     <row r="2222">
       <c r="A2222" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
     </row>
     <row r="2223">
       <c r="A2223" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
@@ -45530,7 +45530,7 @@
     </row>
     <row r="2224">
       <c r="A2224" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
     </row>
     <row r="2225">
       <c r="A2225" s="2" t="n">
-        <v>45707.898585527</v>
+        <v>45707.89858553241</v>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
@@ -45561,6 +45561,2868 @@
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>1 грам абонаментно златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C2226" t="n">
+        <v>182</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>202</v>
+      </c>
+      <c r="E2226" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-abonamentno-zlatno-kulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>0,25 грама златно кюлче Tavex</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2227" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>5682</v>
+      </c>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>5709</v>
+      </c>
+      <c r="E2229" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-vienska-filharmoniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Британия</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>582</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>627</v>
+      </c>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-britaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Виенска Филхармония</t>
+        </is>
+      </c>
+      <c r="C2231" t="n">
+        <v>582</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>638</v>
+      </c>
+      <c r="E2231" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%bd%d0%b0-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b8%d0%b9%d1%81%d0%ba%d0%b0-%d1%84%d0%b8%d0%bb%d1%85%d0%b0%d1%80%d0%bc%d0%be%d0%bd%d0%b8%d1%8f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Канадски кленов лист</t>
+        </is>
+      </c>
+      <c r="C2232" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>5704</v>
+      </c>
+      <c r="E2232" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-kanadski-klenov-list/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийско кенгуру</t>
+        </is>
+      </c>
+      <c r="C2233" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>5682</v>
+      </c>
+      <c r="E2233" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliysko-kenguru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2234" t="n">
+        <v>17713</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>18003</v>
+      </c>
+      <c r="E2234" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2235" t="n">
+        <v>17713</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>18021</v>
+      </c>
+      <c r="E2235" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>0,25 г златно кюлче Tavex, подаръчен пакет</t>
+        </is>
+      </c>
+      <c r="C2236" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>72</v>
+      </c>
+      <c r="E2236" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/0-25-gr-zlatno-kyulche-tavex-podarachen-paket/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>50 x 1 грам комбинирано кюлче Valcambi Suisse CombiBar</t>
+        </is>
+      </c>
+      <c r="C2237" t="n">
+        <v>9007</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>9326</v>
+      </c>
+      <c r="E2237" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-kombinirano-zlatno-kulche-valcambi-combibar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2238" t="n">
+        <v>9007</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>9090</v>
+      </c>
+      <c r="E2238" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2239" t="n">
+        <v>9007</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>9099</v>
+      </c>
+      <c r="E2239" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2240" t="n">
+        <v>5609</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>5660</v>
+      </c>
+      <c r="E2240" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Suisse</t>
+        </is>
+      </c>
+      <c r="C2241" t="n">
+        <v>5609</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>5663</v>
+      </c>
+      <c r="E2241" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-suisse/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2242" t="n">
+        <v>5609</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>5665</v>
+      </c>
+      <c r="E2242" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2243" t="n">
+        <v>3653</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E2243" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2244" t="n">
+        <v>3653</v>
+      </c>
+      <c r="D2244" t="inlineStr"/>
+      <c r="E2244" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>20 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2245" t="n">
+        <v>3653</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>3710</v>
+      </c>
+      <c r="E2245" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2246" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>1887</v>
+      </c>
+      <c r="E2246" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2247" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E2247" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>10 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2248" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E2248" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2249" t="n">
+        <v>922</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>997</v>
+      </c>
+      <c r="E2249" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2250" t="n">
+        <v>922</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E2250" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2251" t="n">
+        <v>922</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>998</v>
+      </c>
+      <c r="E2251" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2252" t="n">
+        <v>957</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C2253" t="n">
+        <v>931</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>1034</v>
+      </c>
+      <c r="E2253" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2254" t="n">
+        <v>474</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>530</v>
+      </c>
+      <c r="E2254" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-5-grama-zlatno-kyulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2,5 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2255" t="n">
+        <v>474</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>534</v>
+      </c>
+      <c r="E2255" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/dva-grama-i-polovina-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2 грама златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2256" t="n">
+        <v>379</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>424</v>
+      </c>
+      <c r="E2256" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/2-grama-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2257" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>223</v>
+      </c>
+      <c r="E2257" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-valcambi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2258" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>225</v>
+      </c>
+      <c r="E2258" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus</t>
+        </is>
+      </c>
+      <c r="C2259" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>221</v>
+      </c>
+      <c r="E2259" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Змия 2025</t>
+        </is>
+      </c>
+      <c r="C2260" t="n">
+        <v>212</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2260" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-zmiya-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски орел</t>
+        </is>
+      </c>
+      <c r="C2261" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>5853</v>
+      </c>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-amerikanski-orel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>20 долара двоен орел лейди Либърти</t>
+        </is>
+      </c>
+      <c r="C2262" t="n">
+        <v>5282</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>6221</v>
+      </c>
+      <c r="E2262" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-dolara-dvoen-orel-lejdi-libarti/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Американски бизон</t>
+        </is>
+      </c>
+      <c r="C2263" t="n">
+        <v>5708</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>5962</v>
+      </c>
+      <c r="E2263" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-amerikanski-bizon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Кругерранд, Южна Африка</t>
+        </is>
+      </c>
+      <c r="C2264" t="n">
+        <v>5548</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>5660</v>
+      </c>
+      <c r="E2264" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-krugerrand-yujna-afrika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Слон Южна Африка - Големите 5</t>
+        </is>
+      </c>
+      <c r="C2265" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>5742</v>
+      </c>
+      <c r="E2265" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-slon-yuzhna-afrika-golemite-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите Пантерата на Кралицата</t>
+        </is>
+      </c>
+      <c r="C2266" t="n">
+        <v>5653</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>5831</v>
+      </c>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-untsiya-zlatna-moneta-pazitelite-na-tyudorite-panterata-na-kralitsata/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2267" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>6375</v>
+      </c>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2268" t="n">
+        <v>5790</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>6078</v>
+      </c>
+      <c r="E2268" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2269" t="n">
+        <v>1447</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>1648</v>
+      </c>
+      <c r="E2269" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2270" t="n">
+        <v>579</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>715</v>
+      </c>
+      <c r="E2270" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2271" t="n">
+        <v>276</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>404</v>
+      </c>
+      <c r="E2271" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2272" t="n">
+        <v>5736</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>5853</v>
+      </c>
+      <c r="E2272" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2273" t="n">
+        <v>2813</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>3132</v>
+      </c>
+      <c r="E2273" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>1/4 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2274" t="n">
+        <v>1447</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E2274" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>1/10 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2275" t="n">
+        <v>579</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>704</v>
+      </c>
+      <c r="E2275" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>1/20 унция златна монета Австралийски лунар година на Змията 2025</t>
+        </is>
+      </c>
+      <c r="C2276" t="n">
+        <v>276</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>404</v>
+      </c>
+      <c r="E2276" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlatna-moneta-avstraliyski-lunar-godina-zmiyata-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>Руска златна монета 5 рубли Николай II</t>
+        </is>
+      </c>
+      <c r="C2277" t="n">
+        <v>755</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>991</v>
+      </c>
+      <c r="E2277" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-5-rubli-nikolay-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>10 рубли Николай II Русия</t>
+        </is>
+      </c>
+      <c r="C2278" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>2052</v>
+      </c>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-rubli-nikolai-ii-rusia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>20 френски франка Наполеон III</t>
+        </is>
+      </c>
+      <c r="C2279" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C2280" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E2280" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-%d1%84%d1%80%d0%b0%d0%bd%d0%ba%d0%b0-%d1%84%d1%80%d0%b5%d0%bd%d1%81%d0%ba%d0%b8-%d0%bd%d0%b0%d0%bf%d0%be%d0%bb%d0%b5%d0%be%d0%bd-%d1%81-%d0%bb%d0%b0%d0%b2%d1%80%d0%be%d0%b2-%d0%b2%d0%b5%d0%bd%d0%b5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>10 франка френски Наполеон III</t>
+        </is>
+      </c>
+      <c r="C2281" t="n">
+        <v>571</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>654</v>
+      </c>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-napoleon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>10 френски франка златна монета Наполеон III с лавров венец</t>
+        </is>
+      </c>
+      <c r="C2282" t="n">
+        <v>571</v>
+      </c>
+      <c r="D2282" t="inlineStr"/>
+      <c r="E2282" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-zlatna-moneta-napoleon-iii-s-lavrov-venets/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>Златна монета 20 френски франка Серес</t>
+        </is>
+      </c>
+      <c r="C2283" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-seres/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>20 френски франка златна монета Гениус</t>
+        </is>
+      </c>
+      <c r="C2284" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-frenski-franka-genius/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>Златна монета 20 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C2285" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E2285" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>20 белгийски франка златна монета Леополд II</t>
+        </is>
+      </c>
+      <c r="C2286" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-belgiiski-franka-leopold-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>20 лири Виктор Емануил II Италия</t>
+        </is>
+      </c>
+      <c r="C2287" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>1098</v>
+      </c>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/italian-20lira-emanuele/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>20 лири златна монета Умберто I, Италия</t>
+        </is>
+      </c>
+      <c r="C2288" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-liri-zlatna-moneta-umberto-i-italiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>4 австрийски дуката златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2289" t="n">
+        <v>2442</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>2640</v>
+      </c>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-avstriiski-dukata-franc-iosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>1 австрийски дукат златна монета Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2290" t="n">
+        <v>628</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>663</v>
+      </c>
+      <c r="E2290" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-1-avstriiski-dukat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>8 форинта/20 франка Франц Йосиф Унгария</t>
+        </is>
+      </c>
+      <c r="C2291" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E2291" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-forinta-20-franka-franc-iosif-ungariia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>Златна монета 4 флорина/10 франка Франц Йосиф, Австрия</t>
+        </is>
+      </c>
+      <c r="C2292" t="n">
+        <v>551</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>589</v>
+      </c>
+      <c r="E2292" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-4-florina-10-franka-franc-iosif-avstria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Швейцария Вренели</t>
+        </is>
+      </c>
+      <c r="C2293" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E2293" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-zlatni-franka-shveitsariya-vreneli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>10 гулдена Вилхелмина Холандия</t>
+        </is>
+      </c>
+      <c r="C2294" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>1161</v>
+      </c>
+      <c r="E2294" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-guldena-vilhemina-holandiya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>20 германски марки Вилхелм II</t>
+        </is>
+      </c>
+      <c r="C2295" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E2295" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-germanski-marki-vilhelm-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>Златен Мемориален Суверен Чарлз III Великобритания 2022г.</t>
+        </is>
+      </c>
+      <c r="C2296" t="n">
+        <v>1325</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E2296" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-memorialen-suveren-charles-iii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>Златен Суверен Чарлз III Великобритания</t>
+        </is>
+      </c>
+      <c r="C2297" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E2297" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-charles-iii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>Златен суверен Елизабет II 1957-2021 Великобритания</t>
+        </is>
+      </c>
+      <c r="C2298" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/suveren-elizabet-ii-velikobritaniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>Златен суверен Едуард VII Великобритания</t>
+        </is>
+      </c>
+      <c r="C2299" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-eduard-vii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>Златен суверен Джордж V Великобритания</t>
+        </is>
+      </c>
+      <c r="C2300" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E2300" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-jorge-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Златен суверен Виктория Великобритания</t>
+        </is>
+      </c>
+      <c r="C2301" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-suveren-viktoriya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>Британски златен суверен Елизабет II, 2022г.</t>
+        </is>
+      </c>
+      <c r="C2302" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D2302" t="inlineStr"/>
+      <c r="E2302" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlaten-britanski-suveren-elizabet-ii-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>20 франка златна монета Тунис</t>
+        </is>
+      </c>
+      <c r="C2303" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E2303" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/20-franka-zlatna-moneta-tunis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>Златна монета 100 турски куруша</t>
+        </is>
+      </c>
+      <c r="C2304" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D2304" t="inlineStr"/>
+      <c r="E2304" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-turski-kurusha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>Златна монета 50 песос, Мексико</t>
+        </is>
+      </c>
+      <c r="C2305" t="n">
+        <v>6649</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>7056</v>
+      </c>
+      <c r="E2305" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-50-pesos-meksiko/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>Златна монета 100 австрийски корони Франц Йосиф</t>
+        </is>
+      </c>
+      <c r="C2306" t="n">
+        <v>5324</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>5709</v>
+      </c>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/zlatna-moneta-100-avstriyski-koroni-franc-yosif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2307" t="n">
+        <v>5426</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2308" t="n">
+        <v>2713</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>2968</v>
+      </c>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2309" t="n">
+        <v>1447</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2310" t="n">
+        <v>543</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>689</v>
+      </c>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2025</t>
+        </is>
+      </c>
+      <c r="C2311" t="n">
+        <v>181</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>274</v>
+      </c>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitaiska-panda-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2022</t>
+        </is>
+      </c>
+      <c r="C2312" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>8243</v>
+      </c>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-tiger-2022-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2021</t>
+        </is>
+      </c>
+      <c r="C2313" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>6594</v>
+      </c>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-australian-lunar-year-of-the-ox-2021-gold-coin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Австралийски лунар година на Мишката 2020</t>
+        </is>
+      </c>
+      <c r="C2314" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2314" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyski-lunar-godina-mishkata-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Кучето 2018</t>
+        </is>
+      </c>
+      <c r="C2315" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2315" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-22/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2017</t>
+        </is>
+      </c>
+      <c r="C2316" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2316" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni40s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Маймуната 2016</t>
+        </is>
+      </c>
+      <c r="C2317" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2317" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-maimunata-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Змията 2013</t>
+        </is>
+      </c>
+      <c r="C2318" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>6594</v>
+      </c>
+      <c r="E2318" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlaten-avstraliiski-lunar-godina-na-zmiyata-2013/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>1 унция австралиисйки лунар година на дракона 2012</t>
+        </is>
+      </c>
+      <c r="C2319" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-drakona-2012/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Заека 2011</t>
+        </is>
+      </c>
+      <c r="C2320" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-moneta-avstraliiski-lunar-zaek-2011/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 2009</t>
+        </is>
+      </c>
+      <c r="C2321" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-vola-2009/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Мишката 2008</t>
+        </is>
+      </c>
+      <c r="C2322" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-uncia-moneta-lunar-mishka-2008/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Прасето 2007</t>
+        </is>
+      </c>
+      <c r="C2323" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2323" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-avstraliiski-lunar-godina-na-praseto-2007/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Петела 2005</t>
+        </is>
+      </c>
+      <c r="C2324" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-petela-2005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийски лунар година на Маймуната 2004</t>
+        </is>
+      </c>
+      <c r="C2325" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-%d1%83%d0%bd%d1%86%d0%b8%d1%8f-%d0%b7%d0%bb%d0%b0%d1%82%d0%b5%d0%bd-%d0%b0%d0%b2%d1%81%d1%82%d1%80%d0%b0%d0%bb%d0%b8%d0%b9%d1%81%d0%ba%d0%b8-%d0%bb%d1%83%d0%bd%d0%b0%d1%80-%d0%b3%d0%be%d0%b4%d0%b8-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Козата 2003</t>
+        </is>
+      </c>
+      <c r="C2326" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2326" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>1 унция златна монета австралийки Лунар 2000 година на дракона</t>
+        </is>
+      </c>
+      <c r="C2327" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>7419</v>
+      </c>
+      <c r="E2327" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliyki-lunar-2000-godina-drakona/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 2010</t>
+        </is>
+      </c>
+      <c r="C2328" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-tigura-2010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Кучето 2006</t>
+        </is>
+      </c>
+      <c r="C2329" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-kucheto-2006/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Тигъра 1998</t>
+        </is>
+      </c>
+      <c r="C2330" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>6869</v>
+      </c>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-tigara-1998/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Вола 1997</t>
+        </is>
+      </c>
+      <c r="C2331" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>6869</v>
+      </c>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-avstraliiski-lunar-godinata-na-vola-1997/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Мишката 1996</t>
+        </is>
+      </c>
+      <c r="C2332" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni42s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>1 унция златен австралийски лунар година на Коня 2014</t>
+        </is>
+      </c>
+      <c r="C2333" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciq-avstraliiski-lunar-godina-na-konq-2014/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C2334" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>1 грам златно кюлче Argor-Heraeus лунар Дракон 2024</t>
+        </is>
+      </c>
+      <c r="C2335" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatno-kyulche-argor-heraeus-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2336" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2337" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2337" t="inlineStr"/>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2338" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2339" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2024</t>
+        </is>
+      </c>
+      <c r="C2340" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>1/2 унция златна монета Австралийски лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2341" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlatna-moneta-avstraliyski-lunar-godina-drakona-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Драконът на Тюдор 2024г.</t>
+        </is>
+      </c>
+      <c r="C2342" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tudorite-drakonat-na-tudor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Еднорогът на Сиймор 2024 г.</t>
+        </is>
+      </c>
+      <c r="C2343" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-ednorogut-na-siimor-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Бикът от Кларънс 2023 г.</t>
+        </is>
+      </c>
+      <c r="C2344" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-pazitelite-na-tyudorite-bikut-ot-klaruns-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Британия - Елизабет II</t>
+        </is>
+      </c>
+      <c r="C2345" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatna-moneta-britaniya-elizabet-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>1 унция златна монета Пазителите на Тюдорите - Йейлът на Бофорт 2023 г.</t>
+        </is>
+      </c>
+      <c r="C2346" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-oz-zlatna-moneta-pazitelite-na-tyudorite-yeylut-na-bofort-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>1/2 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2347" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-2-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>1/4 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2348" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-4-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Дракона 2024</t>
+        </is>
+      </c>
+      <c r="C2349" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-drakon-2024/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>5 грама златно кюлче PAMP лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2350" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/5-grama-zlatno-kyulche-pamp-lunar-zaek-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>1/10 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2351" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-10-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>15 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2352" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/15-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>1/20 унция златен австралийски лунар година на Заека 2023</t>
+        </is>
+      </c>
+      <c r="C2353" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2353" t="inlineStr"/>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-20-unciya-zlaten-avstraliiski-lunar-godina-na-zaeka-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2354" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>8 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2355" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2355" t="inlineStr"/>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/8-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>3 грама златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2356" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/3-grama-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>1 грам златна монета Китайска панда 2023</t>
+        </is>
+      </c>
+      <c r="C2357" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2357" t="inlineStr"/>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-gram-zlatna-moneta-kitayska-panda-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>100 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2358" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2358" t="inlineStr"/>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/100-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>50 грама златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2359" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/50-grama-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>1 унция златно кюлче PAMP Фортуна</t>
+        </is>
+      </c>
+      <c r="C2360" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/1-unciya-zlatno-kulche-pamp-fortuna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>10 крони Кристиян X Дания</t>
+        </is>
+      </c>
+      <c r="C2361" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-kroni-kristiyan-x-daniya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>10 Гулдена Вилхелм III Холандия</t>
+        </is>
+      </c>
+      <c r="C2362" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/a5s12listpositioni38s12attributekeys12slug_seo_urls13attributenames47%d0%bf%d1%8a%d1%82-%d0%b4%d0%be-%d1%81%d1%82%d1%80%d0%b0%d0%bd%d1%86%d0%b8%d1%82%d0%b0%d1%82%d0%b0-seo-9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>30 грама златна монета Китайска панда 2022</t>
+        </is>
+      </c>
+      <c r="C2363" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/30-grama-zlatna-moneta-kitayska-panda-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>Златна монета 10 франка Мариана</t>
+        </is>
+      </c>
+      <c r="C2364" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>https://tavex.bg/zlato/10-frenski-franka-mariana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="2" t="n">
+        <v>45708.85989896983</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>1 килограм златно кюлче Valcambi</t>
+        </is>
+      </c>
+      <c r="C2365" t="n">
+        <v>5681</v>
+      </c>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
         <is>
           <t>https://tavex.bg/zlato/1-kilogram-zlatno-kulche-valcambi/</t>
         </is>
